--- a/outputs-HGR-r202-archive/f__Oscillospiraceae.xlsx
+++ b/outputs-HGR-r202-archive/f__Oscillospiraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:AA68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,169 +663,169 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11152.fa</t>
+          <t>even_MAG-GUT11526.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.375786735322141e-06</v>
+        <v>1.7374988246773e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>7.413729734415365e-05</v>
+        <v>0.0009409090123593594</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08410362609934148</v>
+        <v>0.0001106447687447164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003147670587639481</v>
+        <v>0.02426801701767945</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4220157879337068</v>
+        <v>2.723841775377426e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.123248245972528</v>
+        <v>0.0005795096132121021</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01278757846671155</v>
+        <v>0.9725868866533454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0662645907512282</v>
+        <v>6.695991367679866e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004017328314826259</v>
+        <v>0.0003015566174945836</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02313755696556367</v>
+        <v>6.547143857355207e-07</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01415444716764934</v>
+        <v>1.659407030314782e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03990105132766224</v>
+        <v>0.0005331590141955795</v>
       </c>
       <c r="N3" t="n">
-        <v>1.155787217083144e-05</v>
+        <v>3.496746850145244e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0006214146779065622</v>
+        <v>2.952919409721267e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03841330482093642</v>
+        <v>4.696275050266006e-12</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07917225591374384</v>
+        <v>1.245655997276187e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0007299921152362476</v>
+        <v>0.0005664019137471278</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0007819121773762355</v>
+        <v>5.576243995179028e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.960934603207199e-06</v>
+        <v>1.058388622943659e-07</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05092778165385925</v>
+        <v>5.437727935543639e-10</v>
       </c>
       <c r="V3" t="n">
-        <v>0.00618516029209797</v>
+        <v>2.952919409721278e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33743284278112e-06</v>
+        <v>2.274753565962471e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03029692543829009</v>
+        <v>3.483185282442598e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4220157879337068</v>
+        <v>0.9725868866533454</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>g__CAG-83</t>
+          <t>g__ER4</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>g__CAG-83(reject)</t>
+          <t>g__ER4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11526.fa</t>
+          <t>even_MAG-GUT11741.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.7374988246773e-05</v>
+        <v>0.0002503418850523729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009409090123593594</v>
+        <v>0.008498624924204537</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001106447687447164</v>
+        <v>0.02314183575828186</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02426801701767945</v>
+        <v>0.09074842819653647</v>
       </c>
       <c r="F4" t="n">
-        <v>2.723841775377426e-05</v>
+        <v>0.01396472400042804</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0005795096132121021</v>
+        <v>0.003448282696897536</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9725868866533454</v>
+        <v>0.6101012277573312</v>
       </c>
       <c r="I4" t="n">
-        <v>6.695991367679866e-06</v>
+        <v>0.0007597649868180981</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003015566174945836</v>
+        <v>3.435460720876047e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>6.547143857355207e-07</v>
+        <v>0.0001801249188948382</v>
       </c>
       <c r="L4" t="n">
-        <v>1.659407030314782e-09</v>
+        <v>3.245123451803366e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0005331590141955795</v>
+        <v>0.01361659179667942</v>
       </c>
       <c r="N4" t="n">
-        <v>3.496746850145244e-07</v>
+        <v>2.011041482390472e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>2.952919409721267e-14</v>
+        <v>3.782819407415922e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>4.696275050266006e-12</v>
+        <v>1.039977483409282e-06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.245655997276187e-06</v>
+        <v>5.232138462842284e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0005664019137471278</v>
+        <v>0.0003051364272324019</v>
       </c>
       <c r="S4" t="n">
-        <v>5.576243995179028e-05</v>
+        <v>0.2348405732929176</v>
       </c>
       <c r="T4" t="n">
-        <v>1.058388622943659e-07</v>
+        <v>2.317883384468229e-07</v>
       </c>
       <c r="U4" t="n">
-        <v>5.437727935543639e-10</v>
+        <v>6.788508260226632e-07</v>
       </c>
       <c r="V4" t="n">
-        <v>2.952919409721278e-14</v>
+        <v>6.647463824213868e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.274753565962471e-09</v>
+        <v>4.44652773885737e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>3.483185282442598e-06</v>
+        <v>5.995307214998025e-06</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9725868866533454</v>
+        <v>0.6101012277573312</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
@@ -834,265 +834,265 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__ER4(reject)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11741.fa</t>
+          <t>even_MAG-GUT12106.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002503418850523729</v>
+        <v>6.783042057914641e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008498624924204537</v>
+        <v>0.0001307217943508771</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02314183575828186</v>
+        <v>0.9913965495919609</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09074842819653647</v>
+        <v>0.007014383345382433</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01396472400042804</v>
+        <v>1.417905820809935e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003448282696897536</v>
+        <v>0.0001614881975038647</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6101012277573312</v>
+        <v>0.000152672085053776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0007597649868180981</v>
+        <v>0.0001854957875078118</v>
       </c>
       <c r="J5" t="n">
-        <v>3.435460720876047e-05</v>
+        <v>6.993854327815525e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001801249188948382</v>
+        <v>0.0008130599798802865</v>
       </c>
       <c r="L5" t="n">
-        <v>3.245123451803366e-06</v>
+        <v>1.113332663221227e-12</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01361659179667942</v>
+        <v>2.664338677541988e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>2.011041482390472e-06</v>
+        <v>1.533939000027813e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>3.782819407415922e-14</v>
+        <v>2.220338507642345e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>1.039977483409282e-06</v>
+        <v>9.954243794197423e-11</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.232138462842284e-05</v>
+        <v>1.33629048646457e-08</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0003051364272324019</v>
+        <v>7.545442522402132e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2348405732929176</v>
+        <v>1.076115976878597e-07</v>
       </c>
       <c r="T5" t="n">
-        <v>2.317883384468229e-07</v>
+        <v>6.282185244233021e-13</v>
       </c>
       <c r="U5" t="n">
-        <v>6.788508260226632e-07</v>
+        <v>2.037719049801196e-10</v>
       </c>
       <c r="V5" t="n">
-        <v>6.647463824213868e-13</v>
+        <v>2.220338507642345e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>4.44652773885737e-05</v>
+        <v>8.427487782713566e-08</v>
       </c>
       <c r="X5" t="n">
-        <v>5.995307214998025e-06</v>
+        <v>3.050728579736993e-08</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6101012277573312</v>
+        <v>0.9913965495919609</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__CAG-110</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>g__ER4(reject)</t>
+          <t>g__CAG-110</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12106.fa</t>
+          <t>even_MAG-GUT12393.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.783042057914641e-06</v>
+        <v>2.186199243986278e-10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001307217943508771</v>
+        <v>2.45685446994383e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9913965495919609</v>
+        <v>4.023625569742533e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007014383345382433</v>
+        <v>7.027246641395444e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>1.417905820809935e-05</v>
+        <v>3.708388027866246e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001614881975038647</v>
+        <v>4.762717589217374e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000152672085053776</v>
+        <v>0.9998282573375561</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001854957875078118</v>
+        <v>9.529846448060252e-13</v>
       </c>
       <c r="J6" t="n">
-        <v>6.993854327815525e-06</v>
+        <v>2.982677604070477e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0008130599798802865</v>
+        <v>2.429928015258913e-10</v>
       </c>
       <c r="L6" t="n">
-        <v>1.113332663221227e-12</v>
+        <v>9.377135852283156e-13</v>
       </c>
       <c r="M6" t="n">
-        <v>2.664338677541988e-05</v>
+        <v>4.919947621868022e-06</v>
       </c>
       <c r="N6" t="n">
-        <v>1.533939000027813e-05</v>
+        <v>5.729174711875027e-10</v>
       </c>
       <c r="O6" t="n">
-        <v>2.220338507642345e-14</v>
+        <v>2.220432567638887e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>9.954243794197423e-11</v>
+        <v>2.220432567638887e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.33629048646457e-08</v>
+        <v>1.412751437413131e-08</v>
       </c>
       <c r="R6" t="n">
-        <v>7.545442522402132e-05</v>
+        <v>5.175015560506769e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.076115976878597e-07</v>
+        <v>4.072446099861785e-09</v>
       </c>
       <c r="T6" t="n">
-        <v>6.282185244233021e-13</v>
+        <v>8.628962989930733e-10</v>
       </c>
       <c r="U6" t="n">
-        <v>2.037719049801196e-10</v>
+        <v>9.113051559722053e-12</v>
       </c>
       <c r="V6" t="n">
-        <v>2.220338507642345e-14</v>
+        <v>2.220432567638887e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>8.427487782713566e-08</v>
+        <v>2.220432567638887e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>3.050728579736993e-08</v>
+        <v>1.622626278078404e-09</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9913965495919609</v>
+        <v>0.9998282573375561</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>g__CAG-110</t>
+          <t>g__ER4</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>g__CAG-110</t>
+          <t>g__ER4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12393.fa</t>
+          <t>even_MAG-GUT12533.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.186199243986278e-10</v>
+        <v>3.937121923437537e-09</v>
       </c>
       <c r="C7" t="n">
-        <v>2.45685446994383e-06</v>
+        <v>7.09188787192978e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>4.023625569742533e-06</v>
+        <v>0.0004150207340265095</v>
       </c>
       <c r="E7" t="n">
-        <v>7.027246641395444e-05</v>
+        <v>0.000127997907849058</v>
       </c>
       <c r="F7" t="n">
-        <v>3.708388027866246e-06</v>
+        <v>3.462435825471776e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>4.762717589217374e-06</v>
+        <v>1.686030656660375e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9998282573375561</v>
+        <v>0.9983626512408788</v>
       </c>
       <c r="I7" t="n">
-        <v>9.529846448060252e-13</v>
+        <v>3.227008002802529e-13</v>
       </c>
       <c r="J7" t="n">
-        <v>2.982677604070477e-05</v>
+        <v>7.799728913366033e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>2.429928015258913e-10</v>
+        <v>4.882284179681535e-10</v>
       </c>
       <c r="L7" t="n">
-        <v>9.377135852283156e-13</v>
+        <v>1.19517087884561e-11</v>
       </c>
       <c r="M7" t="n">
-        <v>4.919947621868022e-06</v>
+        <v>2.501956773226612e-07</v>
       </c>
       <c r="N7" t="n">
-        <v>5.729174711875027e-10</v>
+        <v>4.669895673723551e-09</v>
       </c>
       <c r="O7" t="n">
-        <v>2.220432567638887e-14</v>
+        <v>2.2202938838092e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.220432567638887e-14</v>
+        <v>2.2202938838092e-14</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.412751437413131e-08</v>
+        <v>4.61937543162795e-09</v>
       </c>
       <c r="R7" t="n">
-        <v>5.175015560506769e-05</v>
+        <v>0.001056265110719819</v>
       </c>
       <c r="S7" t="n">
-        <v>4.072446099861785e-09</v>
+        <v>3.785089797209191e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>8.628962989930733e-10</v>
+        <v>6.322523001522413e-10</v>
       </c>
       <c r="U7" t="n">
-        <v>9.113051559722053e-12</v>
+        <v>3.386168152160132e-11</v>
       </c>
       <c r="V7" t="n">
-        <v>2.220432567638887e-14</v>
+        <v>2.2202938838092e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>2.220432567638887e-14</v>
+        <v>2.2202938838092e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>1.622626278078404e-09</v>
+        <v>8.293090653943478e-10</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9998282573375561</v>
+        <v>0.9983626512408788</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
@@ -1108,258 +1108,258 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12533.fa</t>
+          <t>even_MAG-GUT12636.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.937121923437537e-09</v>
+        <v>9.007528956112105e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>7.09188787192978e-07</v>
+        <v>5.488284230471106e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0004150207340265095</v>
+        <v>0.0007884570748812544</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000127997907849058</v>
+        <v>2.879281413838721e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>3.462435825471776e-05</v>
+        <v>0.00805640817996642</v>
       </c>
       <c r="G8" t="n">
-        <v>1.686030656660375e-06</v>
+        <v>0.9567935305039782</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9983626512408788</v>
+        <v>6.390159305431952e-07</v>
       </c>
       <c r="I8" t="n">
-        <v>3.227008002802529e-13</v>
+        <v>0.0003014648171697802</v>
       </c>
       <c r="J8" t="n">
-        <v>7.799728913366033e-07</v>
+        <v>1.159153063401609e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>4.882284179681535e-10</v>
+        <v>0.002243087437095799</v>
       </c>
       <c r="L8" t="n">
-        <v>1.19517087884561e-11</v>
+        <v>0.009771704826315029</v>
       </c>
       <c r="M8" t="n">
-        <v>2.501956773226612e-07</v>
+        <v>0.01907122526536211</v>
       </c>
       <c r="N8" t="n">
-        <v>4.669895673723551e-09</v>
+        <v>0.0003441997595170344</v>
       </c>
       <c r="O8" t="n">
-        <v>2.2202938838092e-14</v>
+        <v>1.648869147060733e-08</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2202938838092e-14</v>
+        <v>8.127762517034599e-06</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.61937543162795e-09</v>
+        <v>0.0003706535425143808</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001056265110719819</v>
+        <v>7.232986891672709e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>3.785089797209191e-11</v>
+        <v>0.0008378814211655806</v>
       </c>
       <c r="T8" t="n">
-        <v>6.322523001522413e-10</v>
+        <v>2.214483993906017e-08</v>
       </c>
       <c r="U8" t="n">
-        <v>3.386168152160132e-11</v>
+        <v>0.001291378563967723</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2202938838092e-14</v>
+        <v>4.56794233284631e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2202938838092e-14</v>
+        <v>1.583023822032902e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>8.293090653943478e-10</v>
+        <v>7.608101873606925e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9983626512408788</v>
+        <v>0.9567935305039782</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12636.fa</t>
+          <t>even_MAG-GUT12691.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.007528956112105e-06</v>
+        <v>1.571106925361193e-13</v>
       </c>
       <c r="C9" t="n">
-        <v>5.488284230471106e-06</v>
+        <v>2.349225840474521e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007884570748812544</v>
+        <v>1.407655380007949e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>2.879281413838721e-06</v>
+        <v>5.828192002217655e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00805640817996642</v>
+        <v>2.922970370013293e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9567935305039782</v>
+        <v>3.997313356692579e-08</v>
       </c>
       <c r="H9" t="n">
-        <v>6.390159305431952e-07</v>
+        <v>0.9999113698668717</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003014648171697802</v>
+        <v>2.220499497432024e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>1.159153063401609e-07</v>
+        <v>5.590810253680292e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002243087437095799</v>
+        <v>6.578549024532402e-11</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009771704826315029</v>
+        <v>5.00388803708245e-12</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01907122526536211</v>
+        <v>7.328807436369539e-08</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0003441997595170344</v>
+        <v>1.395503676162235e-10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.648869147060733e-08</v>
+        <v>2.220499497432023e-14</v>
       </c>
       <c r="P9" t="n">
-        <v>8.127762517034599e-06</v>
+        <v>2.220499497432023e-14</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0003706535425143808</v>
+        <v>1.451722623052295e-09</v>
       </c>
       <c r="R9" t="n">
-        <v>7.232986891672709e-06</v>
+        <v>7.407109895076821e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0008378814211655806</v>
+        <v>2.939663072606912e-12</v>
       </c>
       <c r="T9" t="n">
-        <v>2.214483993906017e-08</v>
+        <v>5.478030038443105e-10</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001291378563967723</v>
+        <v>3.669491887614214e-10</v>
       </c>
       <c r="V9" t="n">
-        <v>4.56794233284631e-06</v>
+        <v>2.220499497432023e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>1.583023822032902e-05</v>
+        <v>2.220499497432023e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>7.608101873606925e-05</v>
+        <v>4.973022725057168e-12</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9567935305039782</v>
+        <v>0.9999113698668717</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>g__Dysosmobacter</t>
+          <t>g__ER4</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>g__Dysosmobacter</t>
+          <t>g__ER4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12691.fa</t>
+          <t>even_MAG-GUT13333.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.571106925361193e-13</v>
+        <v>1.487583332291269e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>2.349225840474521e-07</v>
+        <v>1.671664141718855e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>1.407655380007949e-05</v>
+        <v>0.0001653916116713049</v>
       </c>
       <c r="E10" t="n">
-        <v>5.828192002217655e-05</v>
+        <v>0.00213046840208096</v>
       </c>
       <c r="F10" t="n">
-        <v>2.922970370013293e-06</v>
+        <v>0.0001575535437430104</v>
       </c>
       <c r="G10" t="n">
-        <v>3.997313356692579e-08</v>
+        <v>6.548353326455293e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9999113698668717</v>
+        <v>0.9967234120964368</v>
       </c>
       <c r="I10" t="n">
-        <v>2.220499497432024e-14</v>
+        <v>1.734369437510031e-09</v>
       </c>
       <c r="J10" t="n">
-        <v>5.590810253680292e-06</v>
+        <v>1.413756476232264e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>6.578549024532402e-11</v>
+        <v>3.909131251908221e-09</v>
       </c>
       <c r="L10" t="n">
-        <v>5.00388803708245e-12</v>
+        <v>2.528233052209288e-11</v>
       </c>
       <c r="M10" t="n">
-        <v>7.328807436369539e-08</v>
+        <v>6.959910235210205e-06</v>
       </c>
       <c r="N10" t="n">
-        <v>1.395503676162235e-10</v>
+        <v>1.295308179990748e-08</v>
       </c>
       <c r="O10" t="n">
-        <v>2.220499497432023e-14</v>
+        <v>2.220141502506403e-14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.220499497432023e-14</v>
+        <v>2.220141502506403e-14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.451722623052295e-09</v>
+        <v>4.439479033438886e-08</v>
       </c>
       <c r="R10" t="n">
-        <v>7.407109895076821e-06</v>
+        <v>0.0007348021645183033</v>
       </c>
       <c r="S10" t="n">
-        <v>2.939663072606912e-12</v>
+        <v>6.835791920114809e-09</v>
       </c>
       <c r="T10" t="n">
-        <v>5.478030038443105e-10</v>
+        <v>1.365587979803404e-08</v>
       </c>
       <c r="U10" t="n">
-        <v>3.669491887614214e-10</v>
+        <v>8.374036885395729e-11</v>
       </c>
       <c r="V10" t="n">
-        <v>2.220499497432023e-14</v>
+        <v>2.220141502506403e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>2.220499497432023e-14</v>
+        <v>2.262112562253602e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>4.973022725057168e-12</v>
+        <v>2.103891643604657e-08</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9999113698668717</v>
+        <v>0.9967234120964368</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
@@ -1375,80 +1375,80 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13333.fa</t>
+          <t>even_MAG-GUT151.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.487583332291269e-08</v>
+        <v>2.497056105807305e-08</v>
       </c>
       <c r="C11" t="n">
-        <v>1.671664141718855e-06</v>
+        <v>4.258191413726807e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0001653916116713049</v>
+        <v>3.272184262018437e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00213046840208096</v>
+        <v>0.0003557185641695556</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0001575535437430104</v>
+        <v>9.624060023446819e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>6.548353326455293e-05</v>
+        <v>2.011484904742935e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9967234120964368</v>
+        <v>0.999412792644421</v>
       </c>
       <c r="I11" t="n">
-        <v>1.734369437510031e-09</v>
+        <v>9.092655400101642e-12</v>
       </c>
       <c r="J11" t="n">
-        <v>1.413756476232264e-05</v>
+        <v>3.248091070743209e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.909131251908221e-09</v>
+        <v>2.828892591003161e-09</v>
       </c>
       <c r="L11" t="n">
-        <v>2.528233052209288e-11</v>
+        <v>2.651657859946815e-10</v>
       </c>
       <c r="M11" t="n">
-        <v>6.959910235210205e-06</v>
+        <v>1.830976502512798e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.295308179990748e-08</v>
+        <v>1.566389932593449e-09</v>
       </c>
       <c r="O11" t="n">
-        <v>2.220141502506403e-14</v>
+        <v>2.22040784018865e-14</v>
       </c>
       <c r="P11" t="n">
-        <v>2.220141502506403e-14</v>
+        <v>2.22040784018865e-14</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.439479033438886e-08</v>
+        <v>1.19797695268945e-07</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0007348021645183033</v>
+        <v>2.657501204865694e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>6.835791920114809e-09</v>
+        <v>2.706780860161121e-08</v>
       </c>
       <c r="T11" t="n">
-        <v>1.365587979803404e-08</v>
+        <v>5.745096918221559e-07</v>
       </c>
       <c r="U11" t="n">
-        <v>8.374036885395729e-11</v>
+        <v>9.286255062437166e-10</v>
       </c>
       <c r="V11" t="n">
-        <v>2.220141502506403e-14</v>
+        <v>2.22040784018865e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>2.262112562253602e-12</v>
+        <v>3.279157870468386e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>2.103891643604657e-08</v>
+        <v>3.567304362825693e-08</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9967234120964368</v>
+        <v>0.999412792644421</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
@@ -1464,80 +1464,80 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13646.fa</t>
+          <t>even_MAG-GUT16851.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.727622444274481e-05</v>
+        <v>2.220471465007608e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0008925109158760803</v>
+        <v>2.233939777674122e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>0.007436105572517704</v>
+        <v>6.867168936792641e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004944697980611208</v>
+        <v>1.464893231321611e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003711529726147648</v>
+        <v>3.117404209328011e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00276351542080183</v>
+        <v>3.16971141726033e-08</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9311246751080418</v>
+        <v>0.9999698718445331</v>
       </c>
       <c r="I12" t="n">
-        <v>6.206679946473434e-07</v>
+        <v>2.220471465007603e-14</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003465603217207361</v>
+        <v>4.970347152565886e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>3.163131600288642e-06</v>
+        <v>3.936903681903295e-11</v>
       </c>
       <c r="L12" t="n">
-        <v>3.423623057593004e-07</v>
+        <v>2.261160710599832e-13</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04054771198734664</v>
+        <v>4.294996573917137e-08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.557064184697116e-07</v>
+        <v>9.68306189256989e-12</v>
       </c>
       <c r="O12" t="n">
-        <v>8.733842803293227e-14</v>
+        <v>2.220471465007603e-14</v>
       </c>
       <c r="P12" t="n">
-        <v>7.393373343807105e-09</v>
+        <v>2.220471465007603e-14</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.779218752795868e-05</v>
+        <v>1.647567056398256e-10</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001262168111824051</v>
+        <v>2.246938931024036e-07</v>
       </c>
       <c r="S12" t="n">
-        <v>0.003705121141710997</v>
+        <v>1.432904937323002e-12</v>
       </c>
       <c r="T12" t="n">
-        <v>6.469805075496918e-05</v>
+        <v>1.325610866558748e-09</v>
       </c>
       <c r="U12" t="n">
-        <v>1.401792517132348e-07</v>
+        <v>1.933134060776643e-11</v>
       </c>
       <c r="V12" t="n">
-        <v>8.733842803293505e-14</v>
+        <v>2.220471465007603e-14</v>
       </c>
       <c r="W12" t="n">
-        <v>3.594102364992885e-08</v>
+        <v>2.220471465007603e-14</v>
       </c>
       <c r="X12" t="n">
-        <v>1.928973046736762e-06</v>
+        <v>7.360794980625303e-12</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.9311246751080418</v>
+        <v>0.9999698718445331</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
@@ -1553,169 +1553,169 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14116.fa</t>
+          <t>even_MAG-GUT17212.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.738977126852219e-05</v>
+        <v>1.370803913983421e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000896371060488081</v>
+        <v>0.0001164211381072188</v>
       </c>
       <c r="D13" t="n">
-        <v>0.007476542019327394</v>
+        <v>0.001064347203476378</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004983203958159948</v>
+        <v>1.112499364395971e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00374354876666926</v>
+        <v>0.003556210521174264</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002787422181201783</v>
+        <v>0.6751408845142141</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9309420689254422</v>
+        <v>4.607820810015818e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>6.255719186868085e-07</v>
+        <v>0.004018886930114192</v>
       </c>
       <c r="J13" t="n">
-        <v>0.003479316530432525</v>
+        <v>6.566556069902395e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>3.180098883697859e-06</v>
+        <v>0.007287491025073744</v>
       </c>
       <c r="L13" t="n">
-        <v>3.455723144679884e-07</v>
+        <v>0.1797321162030935</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04052937794002624</v>
+        <v>0.08129267683038147</v>
       </c>
       <c r="N13" t="n">
-        <v>3.571965277575939e-07</v>
+        <v>0.03589901642813038</v>
       </c>
       <c r="O13" t="n">
-        <v>8.794863483852823e-14</v>
+        <v>3.032468230772279e-09</v>
       </c>
       <c r="P13" t="n">
-        <v>7.443078491613288e-09</v>
+        <v>8.436823872018628e-06</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.79875316173072e-05</v>
+        <v>0.0008558527736154332</v>
       </c>
       <c r="R13" t="n">
-        <v>0.001280117147755575</v>
+        <v>0.002895594267100233</v>
       </c>
       <c r="S13" t="n">
-        <v>0.003735104772205107</v>
+        <v>3.665725739549071e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>6.491416542618991e-05</v>
+        <v>2.548817517626176e-10</v>
       </c>
       <c r="U13" t="n">
-        <v>1.415039974410362e-07</v>
+        <v>0.0001568499348587535</v>
       </c>
       <c r="V13" t="n">
-        <v>8.794863483852812e-14</v>
+        <v>0.0008951204203645192</v>
       </c>
       <c r="W13" t="n">
-        <v>3.631066065273347e-08</v>
+        <v>2.091829964457763e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>1.941532422907011e-06</v>
+        <v>0.006986508732369908</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.9309420689254422</v>
+        <v>0.6751408845142141</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter(reject)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT151.fa</t>
+          <t>even_MAG-GUT17705.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.497056105807305e-08</v>
+        <v>7.909108179939356e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>4.258191413726807e-06</v>
+        <v>7.449321129004391e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>3.272184262018437e-05</v>
+        <v>2.810477722354117e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0003557185641695556</v>
+        <v>0.0002991598724366832</v>
       </c>
       <c r="F14" t="n">
-        <v>9.624060023446819e-05</v>
+        <v>0.001070775067841341</v>
       </c>
       <c r="G14" t="n">
-        <v>2.011484904742935e-05</v>
+        <v>1.693259731618823e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.999412792644421</v>
+        <v>0.9984087183573508</v>
       </c>
       <c r="I14" t="n">
-        <v>9.092655400101642e-12</v>
+        <v>7.956883757328034e-10</v>
       </c>
       <c r="J14" t="n">
-        <v>3.248091070743209e-05</v>
+        <v>9.725872518089106e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>2.828892591003161e-09</v>
+        <v>2.914189569771817e-09</v>
       </c>
       <c r="L14" t="n">
-        <v>2.651657859946815e-10</v>
+        <v>2.555438678388535e-10</v>
       </c>
       <c r="M14" t="n">
-        <v>1.830976502512798e-05</v>
+        <v>2.368830065394987e-05</v>
       </c>
       <c r="N14" t="n">
-        <v>1.566389932593449e-09</v>
+        <v>4.031098020307069e-09</v>
       </c>
       <c r="O14" t="n">
-        <v>2.22040784018865e-14</v>
+        <v>2.220337695027057e-14</v>
       </c>
       <c r="P14" t="n">
-        <v>2.22040784018865e-14</v>
+        <v>2.220337695027057e-14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.19797695268945e-07</v>
+        <v>1.202415833509031e-07</v>
       </c>
       <c r="R14" t="n">
-        <v>2.657501204865694e-05</v>
+        <v>9.907416551699973e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>2.706780860161121e-08</v>
+        <v>5.823790947656624e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>5.745096918221559e-07</v>
+        <v>1.845971384637839e-08</v>
       </c>
       <c r="U14" t="n">
-        <v>9.286255062437166e-10</v>
+        <v>1.191165832398449e-10</v>
       </c>
       <c r="V14" t="n">
-        <v>2.22040784018865e-14</v>
+        <v>2.220337695027057e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>3.279157870468386e-12</v>
+        <v>6.788950478263098e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>3.567304362825693e-08</v>
+        <v>3.070247008927446e-08</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.999412792644421</v>
+        <v>0.9984087183573508</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -1731,80 +1731,80 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16183.fa</t>
+          <t>even_MAG-GUT22591.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.707466620673864e-06</v>
+        <v>1.508232266365829e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>9.467722470250096e-06</v>
+        <v>0.000170906554049351</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1737480311352107</v>
+        <v>0.9923228479844752</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01128993841602795</v>
+        <v>1.519608261354457e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1158120665256061</v>
+        <v>0.0008913140637220871</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1548566608987322</v>
+        <v>0.002080251871194583</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01711545989042757</v>
+        <v>5.014595466540108e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1376434500977526</v>
+        <v>0.0007024798331551176</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02375484026270588</v>
+        <v>3.754636394613028e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07398225434653651</v>
+        <v>0.001157355275798586</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0101446364311181</v>
+        <v>5.694054592774676e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09744303899557386</v>
+        <v>0.0006032889219997081</v>
       </c>
       <c r="N15" t="n">
-        <v>9.33255185487953e-05</v>
+        <v>6.117920059776456e-06</v>
       </c>
       <c r="O15" t="n">
-        <v>3.941264406749644e-06</v>
+        <v>8.940360057425538e-09</v>
       </c>
       <c r="P15" t="n">
-        <v>0.001662703367044124</v>
+        <v>1.535709111534643e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1243967981945357</v>
+        <v>0.0005584503110179662</v>
       </c>
       <c r="R15" t="n">
-        <v>0.004954303442090456</v>
+        <v>0.0002304364605598335</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0014503184843873</v>
+        <v>0.0002245443225240883</v>
       </c>
       <c r="T15" t="n">
-        <v>4.597730245295965e-07</v>
+        <v>1.726540917029756e-07</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03556713190348243</v>
+        <v>3.170551786207383e-05</v>
       </c>
       <c r="V15" t="n">
-        <v>0.004911990949498634</v>
+        <v>3.487558396161049e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>3.662873152891586e-06</v>
+        <v>0.0008631901943762178</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0111518120410459</v>
+        <v>1.037855337957619e-07</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1737480311352107</v>
+        <v>0.9923228479844752</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
@@ -1813,87 +1813,87 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>g__CAG-110(reject)</t>
+          <t>g__CAG-110</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16851.fa</t>
+          <t>even_MAG-GUT22751.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.220471465007608e-14</v>
+        <v>4.10140414834362e-07</v>
       </c>
       <c r="C16" t="n">
-        <v>2.233939777674122e-07</v>
+        <v>2.471525081112592e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>6.867168936792641e-06</v>
+        <v>0.000534563932618716</v>
       </c>
       <c r="E16" t="n">
-        <v>1.464893231321611e-05</v>
+        <v>0.0009249384075744235</v>
       </c>
       <c r="F16" t="n">
-        <v>3.117404209328011e-06</v>
+        <v>1.283187846799797e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>3.16971141726033e-08</v>
+        <v>5.901473113879082e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9999698718445331</v>
+        <v>0.9977084183271685</v>
       </c>
       <c r="I16" t="n">
-        <v>2.220471465007603e-14</v>
+        <v>3.401596311144327e-09</v>
       </c>
       <c r="J16" t="n">
-        <v>4.970347152565886e-06</v>
+        <v>0.0003493179242996845</v>
       </c>
       <c r="K16" t="n">
-        <v>3.936903681903295e-11</v>
+        <v>9.459804395043984e-09</v>
       </c>
       <c r="L16" t="n">
-        <v>2.261160710599832e-13</v>
+        <v>8.462840026322481e-10</v>
       </c>
       <c r="M16" t="n">
-        <v>4.294996573917137e-08</v>
+        <v>8.118706285943587e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>9.68306189256989e-12</v>
+        <v>2.541148381097221e-08</v>
       </c>
       <c r="O16" t="n">
-        <v>2.220471465007603e-14</v>
+        <v>2.220271638618807e-14</v>
       </c>
       <c r="P16" t="n">
-        <v>2.220471465007603e-14</v>
+        <v>2.220271638618807e-14</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.647567056398256e-10</v>
+        <v>4.865451213610597e-07</v>
       </c>
       <c r="R16" t="n">
-        <v>2.246938931024036e-07</v>
+        <v>0.0003261625398614004</v>
       </c>
       <c r="S16" t="n">
-        <v>1.432904937323002e-12</v>
+        <v>2.442162054723258e-08</v>
       </c>
       <c r="T16" t="n">
-        <v>1.325610866558748e-09</v>
+        <v>1.323350052048853e-08</v>
       </c>
       <c r="U16" t="n">
-        <v>1.933134060776643e-11</v>
+        <v>1.735723823684165e-10</v>
       </c>
       <c r="V16" t="n">
-        <v>2.220471465007603e-14</v>
+        <v>2.220271638618807e-14</v>
       </c>
       <c r="W16" t="n">
-        <v>2.220471465007603e-14</v>
+        <v>6.938981851601329e-11</v>
       </c>
       <c r="X16" t="n">
-        <v>7.360794980625303e-12</v>
+        <v>1.19968075322722e-07</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.9999698718445331</v>
+        <v>0.9977084183271685</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
@@ -1909,347 +1909,347 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17212.fa</t>
+          <t>even_MAG-GUT23967.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.370803913983421e-05</v>
+        <v>1.893413920932357e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001164211381072188</v>
+        <v>3.560783582769251e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001064347203476378</v>
+        <v>0.000609214715656486</v>
       </c>
       <c r="E17" t="n">
-        <v>1.112499364395971e-05</v>
+        <v>0.001146065098675183</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003556210521174264</v>
+        <v>1.533980326223346e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6751408845142141</v>
+        <v>4.962171298373456e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>4.607820810015818e-06</v>
+        <v>0.9978368553108622</v>
       </c>
       <c r="I17" t="n">
-        <v>0.004018886930114192</v>
+        <v>8.23250054703658e-09</v>
       </c>
       <c r="J17" t="n">
-        <v>6.566556069902395e-06</v>
+        <v>5.557037555162126e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.007287491025073744</v>
+        <v>1.45721166690386e-08</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1797321162030935</v>
+        <v>1.42855192947107e-10</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08129267683038147</v>
+        <v>3.893832212119515e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>0.03589901642813038</v>
+        <v>3.206575509470359e-08</v>
       </c>
       <c r="O17" t="n">
-        <v>3.032468230772279e-09</v>
+        <v>2.573480070564351e-14</v>
       </c>
       <c r="P17" t="n">
-        <v>8.436823872018628e-06</v>
+        <v>2.573480070565285e-14</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0008558527736154332</v>
+        <v>3.29211976974111e-07</v>
       </c>
       <c r="R17" t="n">
-        <v>0.002895594267100233</v>
+        <v>0.0002096163314347242</v>
       </c>
       <c r="S17" t="n">
-        <v>3.665725739549071e-05</v>
+        <v>5.580104570989641e-07</v>
       </c>
       <c r="T17" t="n">
-        <v>2.548817517626176e-10</v>
+        <v>1.014445142903176e-09</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0001568499348587535</v>
+        <v>7.676088010766365e-11</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0008951204203645192</v>
+        <v>2.573480070564726e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>2.091829964457763e-05</v>
+        <v>4.265881886224236e-11</v>
       </c>
       <c r="X17" t="n">
-        <v>0.006986508732369908</v>
+        <v>3.33710100326427e-07</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.6751408845142141</v>
+        <v>0.9978368553108622</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>g__Dysosmobacter</t>
+          <t>g__ER4</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>g__Dysosmobacter(reject)</t>
+          <t>g__ER4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17705.fa</t>
+          <t>even_MAG-GUT24763.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.909108179939356e-08</v>
+        <v>3.389655977576006e-08</v>
       </c>
       <c r="C18" t="n">
-        <v>7.449321129004391e-05</v>
+        <v>0.0006181466018355266</v>
       </c>
       <c r="D18" t="n">
-        <v>2.810477722354117e-05</v>
+        <v>3.854310427248543e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0002991598724366832</v>
+        <v>5.096847444592218e-08</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001070775067841341</v>
+        <v>1.462798161241402e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>1.693259731618823e-05</v>
+        <v>0.9636168390352821</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9984087183573508</v>
+        <v>5.729045619551505e-07</v>
       </c>
       <c r="I18" t="n">
-        <v>7.956883757328034e-10</v>
+        <v>9.205161264577484e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>9.725872518089106e-06</v>
+        <v>6.718865922857288e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>2.914189569771817e-09</v>
+        <v>0.0001228813509079495</v>
       </c>
       <c r="L18" t="n">
-        <v>2.555438678388535e-10</v>
+        <v>0.0343125283342949</v>
       </c>
       <c r="M18" t="n">
-        <v>2.368830065394987e-05</v>
+        <v>0.0003456608787792353</v>
       </c>
       <c r="N18" t="n">
-        <v>4.031098020307069e-09</v>
+        <v>0.0003423866644858241</v>
       </c>
       <c r="O18" t="n">
-        <v>2.220337695027057e-14</v>
+        <v>2.220042197677201e-14</v>
       </c>
       <c r="P18" t="n">
-        <v>2.220337695027057e-14</v>
+        <v>3.015737299275476e-10</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.202415833509031e-07</v>
+        <v>0.0003211793974828793</v>
       </c>
       <c r="R18" t="n">
-        <v>9.907416551699973e-06</v>
+        <v>1.85268438546872e-06</v>
       </c>
       <c r="S18" t="n">
-        <v>5.823790947656624e-05</v>
+        <v>3.002888262515387e-09</v>
       </c>
       <c r="T18" t="n">
-        <v>1.845971384637839e-08</v>
+        <v>2.220042197677201e-14</v>
       </c>
       <c r="U18" t="n">
-        <v>1.191165832398449e-10</v>
+        <v>4.509233469478527e-06</v>
       </c>
       <c r="V18" t="n">
-        <v>2.220337695027057e-14</v>
+        <v>1.879658076907091e-08</v>
       </c>
       <c r="W18" t="n">
-        <v>6.788950478263098e-12</v>
+        <v>1.829340889393204e-09</v>
       </c>
       <c r="X18" t="n">
-        <v>3.070247008927446e-08</v>
+        <v>0.0001960813484442008</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.9984087183573508</v>
+        <v>0.9636168390352821</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22591.fa</t>
+          <t>even_MAG-GUT2660.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.508232266365829e-05</v>
+        <v>3.162804733375942e-12</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000170906554049351</v>
+        <v>1.217724110942163e-08</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9923228479844752</v>
+        <v>0.0003205352217441934</v>
       </c>
       <c r="E19" t="n">
-        <v>1.519608261354457e-05</v>
+        <v>7.409750108601288e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0008913140637220871</v>
+        <v>3.674878978018619e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002080251871194583</v>
+        <v>8.703133375897877e-07</v>
       </c>
       <c r="H19" t="n">
-        <v>5.014595466540108e-05</v>
+        <v>0.9996236284085416</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0007024798331551176</v>
+        <v>2.220416302270566e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>3.754636394613028e-06</v>
+        <v>3.15249691616678e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001157355275798586</v>
+        <v>1.07137414935195e-10</v>
       </c>
       <c r="L19" t="n">
-        <v>5.694054592774676e-05</v>
+        <v>2.939092206090686e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0006032889219997081</v>
+        <v>4.306312309118579e-08</v>
       </c>
       <c r="N19" t="n">
-        <v>6.117920059776456e-06</v>
+        <v>4.622462257309264e-11</v>
       </c>
       <c r="O19" t="n">
-        <v>8.940360057425538e-09</v>
+        <v>2.220416302270566e-14</v>
       </c>
       <c r="P19" t="n">
-        <v>1.535709111534643e-05</v>
+        <v>2.220416302270566e-14</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0005584503110179662</v>
+        <v>1.790176076481543e-09</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0002304364605598335</v>
+        <v>1.216821610822676e-05</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0002245443225240883</v>
+        <v>2.430982017116508e-11</v>
       </c>
       <c r="T19" t="n">
-        <v>1.726540917029756e-07</v>
+        <v>1.309522849938036e-07</v>
       </c>
       <c r="U19" t="n">
-        <v>3.170551786207383e-05</v>
+        <v>4.794817884203971e-11</v>
       </c>
       <c r="V19" t="n">
-        <v>3.487558396161049e-07</v>
+        <v>2.220416302270566e-14</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0008631901943762178</v>
+        <v>2.220416302270566e-14</v>
       </c>
       <c r="X19" t="n">
-        <v>1.037855337957619e-07</v>
+        <v>3.000737305986458e-11</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.9923228479844752</v>
+        <v>0.9996236284085416</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>g__CAG-110</t>
+          <t>g__ER4</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>g__CAG-110</t>
+          <t>g__ER4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22751.fa</t>
+          <t>even_MAG-GUT26803.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.10140414834362e-07</v>
+        <v>2.427907309021282e-08</v>
       </c>
       <c r="C20" t="n">
-        <v>2.471525081112592e-06</v>
+        <v>2.855226861967375e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>0.000534563932618716</v>
+        <v>0.002901216065114925</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0009249384075744235</v>
+        <v>0.0002275421595326271</v>
       </c>
       <c r="F20" t="n">
-        <v>1.283187846799797e-05</v>
+        <v>8.992728044032837e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>5.901473113879082e-05</v>
+        <v>5.607388666045605e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9977084183271685</v>
+        <v>0.9967219515581648</v>
       </c>
       <c r="I20" t="n">
-        <v>3.401596311144327e-09</v>
+        <v>5.637418065090009e-12</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0003493179242996845</v>
+        <v>3.145170872757602e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>9.459804395043984e-09</v>
+        <v>2.868829526345691e-09</v>
       </c>
       <c r="L20" t="n">
-        <v>8.462840026322481e-10</v>
+        <v>1.685888016273771e-11</v>
       </c>
       <c r="M20" t="n">
-        <v>8.118706285943587e-05</v>
+        <v>1.036319076930501e-05</v>
       </c>
       <c r="N20" t="n">
-        <v>2.541148381097221e-08</v>
+        <v>6.427769944894444e-09</v>
       </c>
       <c r="O20" t="n">
-        <v>2.220271638618807e-14</v>
+        <v>2.220440548679598e-14</v>
       </c>
       <c r="P20" t="n">
-        <v>2.220271638618807e-14</v>
+        <v>2.220440548679598e-14</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.865451213610597e-07</v>
+        <v>2.498574622479419e-08</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0003261625398614004</v>
+        <v>1.158281148411366e-05</v>
       </c>
       <c r="S20" t="n">
-        <v>2.442162054723258e-08</v>
+        <v>5.575351125247385e-10</v>
       </c>
       <c r="T20" t="n">
-        <v>1.323350052048853e-08</v>
+        <v>1.302270512935728e-08</v>
       </c>
       <c r="U20" t="n">
-        <v>1.735723823684165e-10</v>
+        <v>1.311216849205466e-10</v>
       </c>
       <c r="V20" t="n">
-        <v>2.220271638618807e-14</v>
+        <v>2.220440548679598e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>6.938981851601329e-11</v>
+        <v>2.220440548679598e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>1.19968075322722e-07</v>
+        <v>1.904856327576787e-11</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.9977084183271685</v>
+        <v>0.9967219515581648</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -2265,80 +2265,80 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23967.fa</t>
+          <t>even_MAG-GUT2783.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.893413920932357e-06</v>
+        <v>1.95897576501715e-08</v>
       </c>
       <c r="C21" t="n">
-        <v>3.560783582769251e-05</v>
+        <v>4.944606825773519e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>0.000609214715656486</v>
+        <v>0.0003114209513692181</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001146065098675183</v>
+        <v>0.0001082146613643893</v>
       </c>
       <c r="F21" t="n">
-        <v>1.533980326223346e-05</v>
+        <v>0.000714419139280952</v>
       </c>
       <c r="G21" t="n">
-        <v>4.962171298373456e-05</v>
+        <v>9.622166446351543e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9978368553108622</v>
+        <v>0.9980734993792053</v>
       </c>
       <c r="I21" t="n">
-        <v>8.23250054703658e-09</v>
+        <v>8.397479422063856e-12</v>
       </c>
       <c r="J21" t="n">
-        <v>5.557037555162126e-05</v>
+        <v>3.481121091863706e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>1.45721166690386e-08</v>
+        <v>9.037316223251958e-09</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42855192947107e-10</v>
+        <v>1.282679195873866e-11</v>
       </c>
       <c r="M21" t="n">
-        <v>3.893832212119515e-05</v>
+        <v>3.265206289805731e-05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.206575509470359e-08</v>
+        <v>9.685872276692198e-09</v>
       </c>
       <c r="O21" t="n">
-        <v>2.573480070564351e-14</v>
+        <v>2.304946853947187e-14</v>
       </c>
       <c r="P21" t="n">
-        <v>2.573480070565285e-14</v>
+        <v>2.304946853947187e-14</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.29211976974111e-07</v>
+        <v>5.424007824890014e-08</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0002096163314347242</v>
+        <v>0.0007014508804439586</v>
       </c>
       <c r="S21" t="n">
-        <v>5.580104570989641e-07</v>
+        <v>3.822629344008887e-08</v>
       </c>
       <c r="T21" t="n">
-        <v>1.014445142903176e-09</v>
+        <v>8.832619465276869e-06</v>
       </c>
       <c r="U21" t="n">
-        <v>7.676088010766365e-11</v>
+        <v>5.158803408342583e-10</v>
       </c>
       <c r="V21" t="n">
-        <v>2.573480070564726e-14</v>
+        <v>2.304946853947204e-14</v>
       </c>
       <c r="W21" t="n">
-        <v>4.265881886224236e-11</v>
+        <v>4.036153037169015e-13</v>
       </c>
       <c r="X21" t="n">
-        <v>3.33710100326427e-07</v>
+        <v>1.004886544246909e-09</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.9978368553108622</v>
+        <v>0.9980734993792053</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -2354,258 +2354,258 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24763.fa</t>
+          <t>even_MAG-GUT30102.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.389655977576006e-08</v>
+        <v>4.54233520292426e-09</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0006181466018355266</v>
+        <v>5.305694610206673e-08</v>
       </c>
       <c r="D22" t="n">
-        <v>3.854310427248543e-06</v>
+        <v>6.359567336299991e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>5.096847444592218e-08</v>
+        <v>0.001995308455938568</v>
       </c>
       <c r="F22" t="n">
-        <v>1.462798161241402e-05</v>
+        <v>6.233821140392324e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9636168390352821</v>
+        <v>4.712321485279145e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>5.729045619551505e-07</v>
+        <v>0.9975345868175004</v>
       </c>
       <c r="I22" t="n">
-        <v>9.205161264577484e-05</v>
+        <v>1.090696450981769e-11</v>
       </c>
       <c r="J22" t="n">
-        <v>6.718865922857288e-06</v>
+        <v>1.766264167483814e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001228813509079495</v>
+        <v>1.894388835744412e-09</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0343125283342949</v>
+        <v>2.704763513083757e-11</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0003456608787792353</v>
+        <v>6.881029159987018e-06</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0003423866644858241</v>
+        <v>9.785932133042379e-09</v>
       </c>
       <c r="O22" t="n">
-        <v>2.220042197677201e-14</v>
+        <v>2.220220211941407e-14</v>
       </c>
       <c r="P22" t="n">
-        <v>3.015737299275476e-10</v>
+        <v>2.220220211941407e-14</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0003211793974828793</v>
+        <v>2.410637228675339e-08</v>
       </c>
       <c r="R22" t="n">
-        <v>1.85268438546872e-06</v>
+        <v>0.0002724086769487752</v>
       </c>
       <c r="S22" t="n">
-        <v>3.002888262515387e-09</v>
+        <v>1.347449120321767e-09</v>
       </c>
       <c r="T22" t="n">
-        <v>2.220042197677201e-14</v>
+        <v>1.44576980903182e-10</v>
       </c>
       <c r="U22" t="n">
-        <v>4.509233469478527e-06</v>
+        <v>4.005430065297104e-11</v>
       </c>
       <c r="V22" t="n">
-        <v>1.879658076907091e-08</v>
+        <v>2.220220211941407e-14</v>
       </c>
       <c r="W22" t="n">
-        <v>1.829340889393204e-09</v>
+        <v>2.008100081792619e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0001960813484442008</v>
+        <v>3.228808505018796e-10</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.9636168390352821</v>
+        <v>0.9975345868175004</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>g__Dysosmobacter</t>
+          <t>g__ER4</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>g__Dysosmobacter</t>
+          <t>g__ER4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2660.fa</t>
+          <t>even_MAG-GUT31431.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.162804733375942e-12</v>
+        <v>7.965668419475613e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>1.217724110942163e-08</v>
+        <v>7.3883774041987e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0003205352217441934</v>
+        <v>9.760037320085241e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>7.409750108601288e-06</v>
+        <v>7.854269994112941e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>3.674878978018619e-06</v>
+        <v>3.759772537677444e-05</v>
       </c>
       <c r="G23" t="n">
-        <v>8.703133375897877e-07</v>
+        <v>0.995205652650986</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9996236284085416</v>
+        <v>2.835404291774502e-06</v>
       </c>
       <c r="I23" t="n">
-        <v>2.220416302270566e-14</v>
+        <v>6.013523583781815e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15249691616678e-05</v>
+        <v>5.696474054667042e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>1.07137414935195e-10</v>
+        <v>2.351437295882562e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>2.939092206090686e-13</v>
+        <v>0.001398729949198485</v>
       </c>
       <c r="M23" t="n">
-        <v>4.306312309118579e-08</v>
+        <v>0.001616088788287527</v>
       </c>
       <c r="N23" t="n">
-        <v>4.622462257309264e-11</v>
+        <v>0.000722005982695201</v>
       </c>
       <c r="O23" t="n">
-        <v>2.220416302270566e-14</v>
+        <v>2.22020167238899e-14</v>
       </c>
       <c r="P23" t="n">
-        <v>2.220416302270566e-14</v>
+        <v>5.932252745730704e-07</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.790176076481543e-09</v>
+        <v>0.0003011748706715768</v>
       </c>
       <c r="R23" t="n">
-        <v>1.216821610822676e-05</v>
+        <v>2.399248648755719e-05</v>
       </c>
       <c r="S23" t="n">
-        <v>2.430982017116508e-11</v>
+        <v>2.030885248250075e-06</v>
       </c>
       <c r="T23" t="n">
-        <v>1.309522849938036e-07</v>
+        <v>5.206838757290653e-12</v>
       </c>
       <c r="U23" t="n">
-        <v>4.794817884203971e-11</v>
+        <v>1.176259277690412e-05</v>
       </c>
       <c r="V23" t="n">
-        <v>2.220416302270566e-14</v>
+        <v>4.492967881794177e-09</v>
       </c>
       <c r="W23" t="n">
-        <v>2.220416302270566e-14</v>
+        <v>0.0002113850364120933</v>
       </c>
       <c r="X23" t="n">
-        <v>3.000737305986458e-11</v>
+        <v>0.000403080007010483</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.9996236284085416</v>
+        <v>0.995205652650986</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26803.fa</t>
+          <t>even_MAG-GUT32404.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.427907309021282e-08</v>
+        <v>7.567713125683299e-09</v>
       </c>
       <c r="C24" t="n">
-        <v>2.855226861967375e-07</v>
+        <v>1.009230055348564e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002901216065114925</v>
+        <v>0.0002460241391958542</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0002275421595326271</v>
+        <v>0.0001232370605578252</v>
       </c>
       <c r="F24" t="n">
-        <v>8.992728044032837e-05</v>
+        <v>6.325746465564258e-06</v>
       </c>
       <c r="G24" t="n">
-        <v>5.607388666045605e-06</v>
+        <v>1.744641867504279e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9967219515581648</v>
+        <v>0.997615391369211</v>
       </c>
       <c r="I24" t="n">
-        <v>5.637418065090009e-12</v>
+        <v>4.077494882062081e-12</v>
       </c>
       <c r="J24" t="n">
-        <v>3.145170872757602e-05</v>
+        <v>0.00199048596394454</v>
       </c>
       <c r="K24" t="n">
-        <v>2.868829526345691e-09</v>
+        <v>3.402504257904755e-10</v>
       </c>
       <c r="L24" t="n">
-        <v>1.685888016273771e-11</v>
+        <v>2.263753802885097e-11</v>
       </c>
       <c r="M24" t="n">
-        <v>1.036319076930501e-05</v>
+        <v>1.867171894661606e-06</v>
       </c>
       <c r="N24" t="n">
-        <v>6.427769944894444e-09</v>
+        <v>1.782545037501732e-09</v>
       </c>
       <c r="O24" t="n">
-        <v>2.220440548679598e-14</v>
+        <v>2.220273054554532e-14</v>
       </c>
       <c r="P24" t="n">
-        <v>2.220440548679598e-14</v>
+        <v>2.220273054554532e-14</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.498574622479419e-08</v>
+        <v>3.020047662516855e-08</v>
       </c>
       <c r="R24" t="n">
-        <v>1.158281148411366e-05</v>
+        <v>1.372536921405063e-05</v>
       </c>
       <c r="S24" t="n">
-        <v>5.575351125247385e-10</v>
+        <v>3.278641854953642e-10</v>
       </c>
       <c r="T24" t="n">
-        <v>1.302270512935728e-08</v>
+        <v>1.460601067708573e-07</v>
       </c>
       <c r="U24" t="n">
-        <v>1.311216849205466e-10</v>
+        <v>9.968182210975601e-10</v>
       </c>
       <c r="V24" t="n">
-        <v>2.220440548679598e-14</v>
+        <v>2.220273054554532e-14</v>
       </c>
       <c r="W24" t="n">
-        <v>2.220440548679598e-14</v>
+        <v>2.220273054554532e-14</v>
       </c>
       <c r="X24" t="n">
-        <v>1.904856327576787e-11</v>
+        <v>2.00501545797407e-09</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.9967219515581648</v>
+        <v>0.997615391369211</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
@@ -2621,80 +2621,80 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2783.fa</t>
+          <t>even_MAG-GUT32509.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.95897576501715e-08</v>
+        <v>1.835358374493177e-10</v>
       </c>
       <c r="C25" t="n">
-        <v>4.944606825773519e-06</v>
+        <v>4.274335548684334e-07</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0003114209513692181</v>
+        <v>3.855370557190213e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0001082146613643893</v>
+        <v>0.0004356329840387734</v>
       </c>
       <c r="F25" t="n">
-        <v>0.000714419139280952</v>
+        <v>2.569688461032176e-05</v>
       </c>
       <c r="G25" t="n">
-        <v>9.622166446351543e-06</v>
+        <v>3.322557176401093e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9980734993792053</v>
+        <v>0.9993717085764539</v>
       </c>
       <c r="I25" t="n">
-        <v>8.397479422063856e-12</v>
+        <v>1.748198961043884e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>3.481121091863706e-05</v>
+        <v>0.0001149116972886986</v>
       </c>
       <c r="K25" t="n">
-        <v>9.037316223251958e-09</v>
+        <v>1.765389582702816e-10</v>
       </c>
       <c r="L25" t="n">
-        <v>1.282679195873866e-11</v>
+        <v>5.894843662657071e-12</v>
       </c>
       <c r="M25" t="n">
-        <v>3.265206289805731e-05</v>
+        <v>4.844214624143463e-06</v>
       </c>
       <c r="N25" t="n">
-        <v>9.685872276692198e-09</v>
+        <v>1.6814668536616e-09</v>
       </c>
       <c r="O25" t="n">
-        <v>2.304946853947187e-14</v>
+        <v>2.220397900610805e-14</v>
       </c>
       <c r="P25" t="n">
-        <v>2.304946853947187e-14</v>
+        <v>2.220397900610805e-14</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.424007824890014e-08</v>
+        <v>3.02118844460487e-08</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0007014508804439586</v>
+        <v>4.846806500997391e-06</v>
       </c>
       <c r="S25" t="n">
-        <v>3.822629344008887e-08</v>
+        <v>1.170437541675004e-09</v>
       </c>
       <c r="T25" t="n">
-        <v>8.832619465276869e-06</v>
+        <v>1.703633399743068e-08</v>
       </c>
       <c r="U25" t="n">
-        <v>5.158803408342583e-10</v>
+        <v>5.937668786559974e-11</v>
       </c>
       <c r="V25" t="n">
-        <v>2.304946853947204e-14</v>
+        <v>2.220397900610805e-14</v>
       </c>
       <c r="W25" t="n">
-        <v>4.036153037169015e-13</v>
+        <v>2.220397900610805e-14</v>
       </c>
       <c r="X25" t="n">
-        <v>1.004886544246909e-09</v>
+        <v>4.614447231176616e-09</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.9980734993792053</v>
+        <v>0.9993717085764539</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
@@ -2710,80 +2710,80 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30102.fa</t>
+          <t>even_MAG-GUT33324.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.54233520292426e-09</v>
+        <v>3.814051135391279e-10</v>
       </c>
       <c r="C26" t="n">
-        <v>5.305694610206673e-08</v>
+        <v>3.868352938288784e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>6.359567336299991e-05</v>
+        <v>4.085079618578861e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001995308455938568</v>
+        <v>0.0005440218238854741</v>
       </c>
       <c r="F26" t="n">
-        <v>6.233821140392324e-05</v>
+        <v>3.496989863399843e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>4.712321485279145e-05</v>
+        <v>1.762545975837546e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9975345868175004</v>
+        <v>0.9993101945513959</v>
       </c>
       <c r="I26" t="n">
-        <v>1.090696450981769e-11</v>
+        <v>1.458286206461278e-11</v>
       </c>
       <c r="J26" t="n">
-        <v>1.766264167483814e-05</v>
+        <v>2.03365464496368e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>1.894388835744412e-09</v>
+        <v>3.8537577608094e-10</v>
       </c>
       <c r="L26" t="n">
-        <v>2.704763513083757e-11</v>
+        <v>2.055820191411096e-11</v>
       </c>
       <c r="M26" t="n">
-        <v>6.881029159987018e-06</v>
+        <v>3.101455660965417e-06</v>
       </c>
       <c r="N26" t="n">
-        <v>9.785932133042379e-09</v>
+        <v>2.008592599557201e-09</v>
       </c>
       <c r="O26" t="n">
-        <v>2.220220211941407e-14</v>
+        <v>2.220408024069277e-14</v>
       </c>
       <c r="P26" t="n">
-        <v>2.220220211941407e-14</v>
+        <v>2.220408024069277e-14</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.410637228675339e-08</v>
+        <v>3.055123445566126e-08</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0002724086769487752</v>
+        <v>5.923174400608197e-06</v>
       </c>
       <c r="S26" t="n">
-        <v>1.347449120321767e-09</v>
+        <v>4.973648799387362e-09</v>
       </c>
       <c r="T26" t="n">
-        <v>1.44576980903182e-10</v>
+        <v>1.071572837884236e-07</v>
       </c>
       <c r="U26" t="n">
-        <v>4.005430065297104e-11</v>
+        <v>1.563738954973187e-10</v>
       </c>
       <c r="V26" t="n">
-        <v>2.220220211941407e-14</v>
+        <v>2.220408024069277e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>2.008100081792619e-13</v>
+        <v>1.426396371035153e-13</v>
       </c>
       <c r="X26" t="n">
-        <v>3.228808505018796e-10</v>
+        <v>1.002876435390283e-08</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.9975345868175004</v>
+        <v>0.9993101945513959</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
@@ -2799,80 +2799,80 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31431.fa</t>
+          <t>even_MAG-GUT34932.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.965668419475613e-06</v>
+        <v>2.38649234336537e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>7.3883774041987e-06</v>
+        <v>2.626330803213395e-07</v>
       </c>
       <c r="D27" t="n">
-        <v>9.760037320085241e-06</v>
+        <v>2.142779399414113e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>7.854269994112941e-06</v>
+        <v>1.870372426479062e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>3.759772537677444e-05</v>
+        <v>0.0001800575231472239</v>
       </c>
       <c r="G27" t="n">
-        <v>0.995205652650986</v>
+        <v>0.9949499263402333</v>
       </c>
       <c r="H27" t="n">
-        <v>2.835404291774502e-06</v>
+        <v>1.7021815297318e-06</v>
       </c>
       <c r="I27" t="n">
-        <v>6.013523583781815e-06</v>
+        <v>4.051650539613889e-07</v>
       </c>
       <c r="J27" t="n">
-        <v>5.696474054667042e-07</v>
+        <v>4.697812722063662e-07</v>
       </c>
       <c r="K27" t="n">
-        <v>2.351437295882562e-05</v>
+        <v>0.0001017984360086326</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001398729949198485</v>
+        <v>0.0007773404530748931</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001616088788287527</v>
+        <v>0.001100400427515232</v>
       </c>
       <c r="N27" t="n">
-        <v>0.000722005982695201</v>
+        <v>0.000932323726258364</v>
       </c>
       <c r="O27" t="n">
-        <v>2.22020167238899e-14</v>
+        <v>1.77958609659041e-13</v>
       </c>
       <c r="P27" t="n">
-        <v>5.932252745730704e-07</v>
+        <v>4.811499661331682e-06</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0003011748706715768</v>
+        <v>0.0002900602380695634</v>
       </c>
       <c r="R27" t="n">
-        <v>2.399248648755719e-05</v>
+        <v>9.296303881266022e-06</v>
       </c>
       <c r="S27" t="n">
-        <v>2.030885248250075e-06</v>
+        <v>8.783425101472355e-07</v>
       </c>
       <c r="T27" t="n">
-        <v>5.206838757290653e-12</v>
+        <v>1.028858883841594e-10</v>
       </c>
       <c r="U27" t="n">
-        <v>1.176259277690412e-05</v>
+        <v>1.207252570342625e-05</v>
       </c>
       <c r="V27" t="n">
-        <v>4.492967881794177e-09</v>
+        <v>5.57312431325888e-09</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0002113850364120933</v>
+        <v>0.001592268943935862</v>
       </c>
       <c r="X27" t="n">
-        <v>0.000403080007010483</v>
+        <v>5.54963538321203e-06</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.995205652650986</v>
+        <v>0.9949499263402333</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
@@ -2888,80 +2888,80 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32404.fa</t>
+          <t>even_MAG-GUT35087.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.567713125683299e-09</v>
+        <v>5.410931535886561e-12</v>
       </c>
       <c r="C28" t="n">
-        <v>1.009230055348564e-06</v>
+        <v>2.379761133469083e-07</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0002460241391958542</v>
+        <v>1.983715543268114e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0001232370605578252</v>
+        <v>1.576906709978508e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>6.325746465564258e-06</v>
+        <v>1.307052235413918e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>1.744641867504279e-06</v>
+        <v>8.331451678766226e-08</v>
       </c>
       <c r="H28" t="n">
-        <v>0.997615391369211</v>
+        <v>0.9999205632574907</v>
       </c>
       <c r="I28" t="n">
-        <v>4.077494882062081e-12</v>
+        <v>2.220504557324529e-14</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00199048596394454</v>
+        <v>2.284149941369935e-05</v>
       </c>
       <c r="K28" t="n">
-        <v>3.402504257904755e-10</v>
+        <v>1.978127841593268e-10</v>
       </c>
       <c r="L28" t="n">
-        <v>2.263753802885097e-11</v>
+        <v>9.129806751078089e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>1.867171894661606e-06</v>
+        <v>6.410686125357514e-07</v>
       </c>
       <c r="N28" t="n">
-        <v>1.782545037501732e-09</v>
+        <v>1.099349981482102e-10</v>
       </c>
       <c r="O28" t="n">
-        <v>2.220273054554532e-14</v>
+        <v>2.220504557324528e-14</v>
       </c>
       <c r="P28" t="n">
-        <v>2.220273054554532e-14</v>
+        <v>2.220504557324528e-14</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.020047662516855e-08</v>
+        <v>1.869410243121118e-09</v>
       </c>
       <c r="R28" t="n">
-        <v>1.372536921405063e-05</v>
+        <v>1.865580240615137e-05</v>
       </c>
       <c r="S28" t="n">
-        <v>3.278641854953642e-10</v>
+        <v>1.162169984531319e-11</v>
       </c>
       <c r="T28" t="n">
-        <v>1.460601067708573e-07</v>
+        <v>6.132078404924498e-08</v>
       </c>
       <c r="U28" t="n">
-        <v>9.968182210975601e-10</v>
+        <v>9.591920094820198e-12</v>
       </c>
       <c r="V28" t="n">
-        <v>2.220273054554532e-14</v>
+        <v>2.220504557324529e-14</v>
       </c>
       <c r="W28" t="n">
-        <v>2.220273054554532e-14</v>
+        <v>2.220504557324529e-14</v>
       </c>
       <c r="X28" t="n">
-        <v>2.00501545797407e-09</v>
+        <v>2.810884271787698e-10</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.997615391369211</v>
+        <v>0.9999205632574907</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
@@ -2977,80 +2977,80 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32509.fa</t>
+          <t>even_MAG-GUT35206.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.835358374493177e-10</v>
+        <v>0.001559604860472696</v>
       </c>
       <c r="C29" t="n">
-        <v>4.274335548684334e-07</v>
+        <v>0.01682173801193</v>
       </c>
       <c r="D29" t="n">
-        <v>3.855370557190213e-05</v>
+        <v>0.002794292153561628</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0004356329840387734</v>
+        <v>0.001003686771807722</v>
       </c>
       <c r="F29" t="n">
-        <v>2.569688461032176e-05</v>
+        <v>0.006013059823466575</v>
       </c>
       <c r="G29" t="n">
-        <v>3.322557176401093e-06</v>
+        <v>0.0008653990505823604</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9993717085764539</v>
+        <v>0.9694063659584203</v>
       </c>
       <c r="I29" t="n">
-        <v>1.748198961043884e-13</v>
+        <v>2.08840794781885e-05</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0001149116972886986</v>
+        <v>5.057168089692956e-06</v>
       </c>
       <c r="K29" t="n">
-        <v>1.765389582702816e-10</v>
+        <v>1.298432860223205e-07</v>
       </c>
       <c r="L29" t="n">
-        <v>5.894843662657071e-12</v>
+        <v>3.205940275134861e-09</v>
       </c>
       <c r="M29" t="n">
-        <v>4.844214624143463e-06</v>
+        <v>5.157238586231587e-05</v>
       </c>
       <c r="N29" t="n">
-        <v>1.6814668536616e-09</v>
+        <v>4.331656608417499e-07</v>
       </c>
       <c r="O29" t="n">
-        <v>2.220397900610805e-14</v>
+        <v>3.265578982484329e-14</v>
       </c>
       <c r="P29" t="n">
-        <v>2.220397900610805e-14</v>
+        <v>9.960980747411656e-12</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.02118844460487e-08</v>
+        <v>2.682909314762943e-06</v>
       </c>
       <c r="R29" t="n">
-        <v>4.846806500997391e-06</v>
+        <v>0.001169116181879922</v>
       </c>
       <c r="S29" t="n">
-        <v>1.170437541675004e-09</v>
+        <v>6.608728781248393e-06</v>
       </c>
       <c r="T29" t="n">
-        <v>1.703633399743068e-08</v>
+        <v>0.0002773183292917023</v>
       </c>
       <c r="U29" t="n">
-        <v>5.937668786559974e-11</v>
+        <v>2.617758710618618e-09</v>
       </c>
       <c r="V29" t="n">
-        <v>2.220397900610805e-14</v>
+        <v>3.265578982484328e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>2.220397900610805e-14</v>
+        <v>2.833124801482896e-09</v>
       </c>
       <c r="X29" t="n">
-        <v>4.614447231176616e-09</v>
+        <v>2.041911264038879e-06</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.9993717085764539</v>
+        <v>0.9694063659584203</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
@@ -3066,169 +3066,169 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32879.fa</t>
+          <t>even_MAG-GUT35231.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.220402938823729e-14</v>
+        <v>1.906957132164321e-06</v>
       </c>
       <c r="C30" t="n">
-        <v>1.133034345469877e-08</v>
+        <v>1.4357826970344e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>7.64594575362492e-08</v>
+        <v>0.7000668181284013</v>
       </c>
       <c r="E30" t="n">
-        <v>4.743786146534486e-05</v>
+        <v>1.524036452431411e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0004056731355014882</v>
+        <v>0.001645583921140407</v>
       </c>
       <c r="G30" t="n">
-        <v>8.803817622122787e-08</v>
+        <v>0.00302698021137475</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9995345950820197</v>
+        <v>3.596296087175408e-05</v>
       </c>
       <c r="I30" t="n">
-        <v>2.220402938823729e-14</v>
+        <v>0.06873341084923025</v>
       </c>
       <c r="J30" t="n">
-        <v>1.174394124172035e-05</v>
+        <v>0.0006167848781253112</v>
       </c>
       <c r="K30" t="n">
-        <v>6.876429306012395e-12</v>
+        <v>0.2200707674890068</v>
       </c>
       <c r="L30" t="n">
-        <v>3.488343531673184e-12</v>
+        <v>1.762926764496167e-06</v>
       </c>
       <c r="M30" t="n">
-        <v>7.487161934235639e-08</v>
+        <v>0.0007946896934920691</v>
       </c>
       <c r="N30" t="n">
-        <v>1.787704802743194e-11</v>
+        <v>4.246491848306727e-05</v>
       </c>
       <c r="O30" t="n">
-        <v>2.220402938823729e-14</v>
+        <v>2.307155510985433e-08</v>
       </c>
       <c r="P30" t="n">
-        <v>2.220402938823729e-14</v>
+        <v>1.155512916801142e-06</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.980559328170735e-10</v>
+        <v>0.0003583337812364029</v>
       </c>
       <c r="R30" t="n">
-        <v>2.952744630394946e-07</v>
+        <v>3.672105686745261e-06</v>
       </c>
       <c r="S30" t="n">
-        <v>4.451015533805294e-11</v>
+        <v>0.004591431788965118</v>
       </c>
       <c r="T30" t="n">
-        <v>3.476381248097579e-09</v>
+        <v>1.208275494843167e-08</v>
       </c>
       <c r="U30" t="n">
-        <v>1.538208549546828e-10</v>
+        <v>4.41853649047924e-07</v>
       </c>
       <c r="V30" t="n">
-        <v>2.220402938823729e-14</v>
+        <v>4.260228017995033e-07</v>
       </c>
       <c r="W30" t="n">
-        <v>2.220402938823729e-14</v>
+        <v>4.30484782811544e-07</v>
       </c>
       <c r="X30" t="n">
-        <v>4.568692529639363e-12</v>
+        <v>3.980542479428851e-06</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.9995345950820197</v>
+        <v>0.7000668181284013</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__CAG-110</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__CAG-110(reject)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33324.fa</t>
+          <t>even_MAG-GUT35597.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.814051135391279e-10</v>
+        <v>1.002357219623122e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>3.868352938288784e-05</v>
+        <v>4.350442676186924e-07</v>
       </c>
       <c r="D31" t="n">
-        <v>4.085079618578861e-05</v>
+        <v>2.645392647408852e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0005440218238854741</v>
+        <v>5.578005917585909e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>3.496989863399843e-05</v>
+        <v>1.186339873462101e-06</v>
       </c>
       <c r="G31" t="n">
-        <v>1.762545975837546e-06</v>
+        <v>1.148380388270218e-07</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9993101945513959</v>
+        <v>0.9999455068726696</v>
       </c>
       <c r="I31" t="n">
-        <v>1.458286206461278e-11</v>
+        <v>2.220442304405784e-14</v>
       </c>
       <c r="J31" t="n">
-        <v>2.03365464496368e-05</v>
+        <v>1.718556650545758e-05</v>
       </c>
       <c r="K31" t="n">
-        <v>3.8537577608094e-10</v>
+        <v>1.6965075924163e-11</v>
       </c>
       <c r="L31" t="n">
-        <v>2.055820191411096e-11</v>
+        <v>5.656860470364795e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>3.101455660965417e-06</v>
+        <v>1.810000510947672e-08</v>
       </c>
       <c r="N31" t="n">
-        <v>2.008592599557201e-09</v>
+        <v>6.768049509124818e-11</v>
       </c>
       <c r="O31" t="n">
-        <v>2.220408024069277e-14</v>
+        <v>2.220442304405784e-14</v>
       </c>
       <c r="P31" t="n">
-        <v>2.220408024069277e-14</v>
+        <v>2.220442304405784e-14</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.055123445566126e-08</v>
+        <v>5.670000310400824e-10</v>
       </c>
       <c r="R31" t="n">
-        <v>5.923174400608197e-06</v>
+        <v>3.520520943923154e-06</v>
       </c>
       <c r="S31" t="n">
-        <v>4.973648799387362e-09</v>
+        <v>6.319324077704226e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>1.071572837884236e-07</v>
+        <v>9.831836594622688e-11</v>
       </c>
       <c r="U31" t="n">
-        <v>1.563738954973187e-10</v>
+        <v>2.072242638312223e-11</v>
       </c>
       <c r="V31" t="n">
-        <v>2.220408024069277e-14</v>
+        <v>2.220442304405784e-14</v>
       </c>
       <c r="W31" t="n">
-        <v>1.426396371035153e-13</v>
+        <v>2.220442304405784e-14</v>
       </c>
       <c r="X31" t="n">
-        <v>1.002876435390283e-08</v>
+        <v>1.320923741459029e-11</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.9993101945513959</v>
+        <v>0.9999455068726696</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
@@ -3244,258 +3244,258 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33914.fa</t>
+          <t>even_MAG-GUT36441.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.579695286144389e-07</v>
+        <v>3.292787216187334e-06</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9982802545669609</v>
+        <v>1.224047964912735e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0008967398695928173</v>
+        <v>0.000807826080758336</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0003513812375500018</v>
+        <v>7.591432220401239e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0003788125814720396</v>
+        <v>1.929568777754915e-05</v>
       </c>
       <c r="G32" t="n">
-        <v>1.209751151222242e-05</v>
+        <v>4.258268643683566e-05</v>
       </c>
       <c r="H32" t="n">
-        <v>4.116649348573239e-05</v>
+        <v>0.9979758619326453</v>
       </c>
       <c r="I32" t="n">
-        <v>2.443297469287296e-08</v>
+        <v>5.297090014977661e-09</v>
       </c>
       <c r="J32" t="n">
-        <v>1.714450668224951e-05</v>
+        <v>0.0001248317334047134</v>
       </c>
       <c r="K32" t="n">
-        <v>8.702857427457723e-06</v>
+        <v>5.021958857858594e-09</v>
       </c>
       <c r="L32" t="n">
-        <v>2.004630464971822e-09</v>
+        <v>3.920730247335664e-11</v>
       </c>
       <c r="M32" t="n">
-        <v>1.009211006534117e-05</v>
+        <v>2.607992414736328e-05</v>
       </c>
       <c r="N32" t="n">
-        <v>2.077360905511979e-08</v>
+        <v>3.166370839441179e-08</v>
       </c>
       <c r="O32" t="n">
-        <v>2.220292546377686e-14</v>
+        <v>2.22039814528963e-14</v>
       </c>
       <c r="P32" t="n">
-        <v>5.47053845912501e-12</v>
+        <v>2.22039814528963e-14</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.663419686007754e-08</v>
+        <v>2.993439702828931e-07</v>
       </c>
       <c r="R32" t="n">
-        <v>3.086101473848883e-06</v>
+        <v>0.0009102567698115185</v>
       </c>
       <c r="S32" t="n">
-        <v>1.307701963491097e-07</v>
+        <v>4.211767438902104e-08</v>
       </c>
       <c r="T32" t="n">
-        <v>8.306527295882604e-09</v>
+        <v>1.368049285135391e-06</v>
       </c>
       <c r="U32" t="n">
-        <v>4.538167613247872e-10</v>
+        <v>7.429845798578978e-11</v>
       </c>
       <c r="V32" t="n">
-        <v>2.220292546377686e-14</v>
+        <v>2.22039814528963e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>4.192612086175744e-10</v>
+        <v>9.296312090258984e-12</v>
       </c>
       <c r="X32" t="n">
-        <v>3.0393521397781e-08</v>
+        <v>6.597939337472478e-08</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.9982802545669609</v>
+        <v>0.9979758619326453</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>g__CAG-103</t>
+          <t>g__ER4</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>g__CAG-103</t>
+          <t>g__ER4</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34932.fa</t>
+          <t>even_MAG-GUT3651.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.38649234336537e-07</v>
+        <v>2.220438865782764e-14</v>
       </c>
       <c r="C33" t="n">
-        <v>2.626330803213395e-07</v>
+        <v>1.339921139285142e-07</v>
       </c>
       <c r="D33" t="n">
-        <v>2.142779399414113e-05</v>
+        <v>7.858979626662696e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>1.870372426479062e-05</v>
+        <v>2.582447660103201e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0001800575231472239</v>
+        <v>1.482315665592374e-06</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9949499263402333</v>
+        <v>9.902555422934602e-09</v>
       </c>
       <c r="H33" t="n">
-        <v>1.7021815297318e-06</v>
+        <v>0.9999160236211212</v>
       </c>
       <c r="I33" t="n">
-        <v>4.051650539613889e-07</v>
+        <v>2.220438865782764e-14</v>
       </c>
       <c r="J33" t="n">
-        <v>4.697812722063662e-07</v>
+        <v>8.039845240947499e-07</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001017984360086326</v>
+        <v>1.525952364937315e-11</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0007773404530748931</v>
+        <v>2.19183742866894e-12</v>
       </c>
       <c r="M33" t="n">
-        <v>0.001100400427515232</v>
+        <v>4.863406862811628e-10</v>
       </c>
       <c r="N33" t="n">
-        <v>0.000932323726258364</v>
+        <v>1.984615613630983e-11</v>
       </c>
       <c r="O33" t="n">
-        <v>1.77958609659041e-13</v>
+        <v>2.220438865782764e-14</v>
       </c>
       <c r="P33" t="n">
-        <v>4.811499661331682e-06</v>
+        <v>2.220438865782764e-14</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0002900602380695634</v>
+        <v>3.816199479602093e-11</v>
       </c>
       <c r="R33" t="n">
-        <v>9.296303881266022e-06</v>
+        <v>3.732396869382628e-07</v>
       </c>
       <c r="S33" t="n">
-        <v>8.783425101472355e-07</v>
+        <v>9.155942618614647e-14</v>
       </c>
       <c r="T33" t="n">
-        <v>1.028858883841594e-10</v>
+        <v>8.357271199655515e-11</v>
       </c>
       <c r="U33" t="n">
-        <v>1.207252570342625e-05</v>
+        <v>5.162948830552403e-11</v>
       </c>
       <c r="V33" t="n">
-        <v>5.57312431325888e-09</v>
+        <v>2.220438865782764e-14</v>
       </c>
       <c r="W33" t="n">
-        <v>0.001592268943935862</v>
+        <v>2.220438865782764e-14</v>
       </c>
       <c r="X33" t="n">
-        <v>5.54963538321203e-06</v>
+        <v>3.179292900834971e-12</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.9949499263402333</v>
+        <v>0.9999160236211212</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>g__Dysosmobacter</t>
+          <t>g__ER4</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>g__Dysosmobacter</t>
+          <t>g__ER4</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35087.fa</t>
+          <t>even_MAG-GUT36692.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.410931535886561e-12</v>
+        <v>3.100157351375592e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>2.379761133469083e-07</v>
+        <v>4.723934705152672e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>1.983715543268114e-05</v>
+        <v>0.001154878227622166</v>
       </c>
       <c r="E34" t="n">
-        <v>1.576906709978508e-05</v>
+        <v>0.001588546835920697</v>
       </c>
       <c r="F34" t="n">
-        <v>1.307052235413918e-06</v>
+        <v>1.349277363943696e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>8.331451678766226e-08</v>
+        <v>9.861467736627292e-06</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9999205632574907</v>
+        <v>0.9959485238982584</v>
       </c>
       <c r="I34" t="n">
-        <v>2.220504557324529e-14</v>
+        <v>3.297699729000133e-10</v>
       </c>
       <c r="J34" t="n">
-        <v>2.284149941369935e-05</v>
+        <v>0.0012259748389599</v>
       </c>
       <c r="K34" t="n">
-        <v>1.978127841593268e-10</v>
+        <v>5.7109436395093e-09</v>
       </c>
       <c r="L34" t="n">
-        <v>9.129806751078089e-13</v>
+        <v>7.451317759475731e-11</v>
       </c>
       <c r="M34" t="n">
-        <v>6.410686125357514e-07</v>
+        <v>4.793069628469079e-05</v>
       </c>
       <c r="N34" t="n">
-        <v>1.099349981482102e-10</v>
+        <v>1.919117476498624e-08</v>
       </c>
       <c r="O34" t="n">
-        <v>2.220504557324528e-14</v>
+        <v>2.561301822393344e-14</v>
       </c>
       <c r="P34" t="n">
-        <v>2.220504557324528e-14</v>
+        <v>2.561301822393344e-14</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.869410243121118e-09</v>
+        <v>2.016232412368888e-07</v>
       </c>
       <c r="R34" t="n">
-        <v>1.865580240615137e-05</v>
+        <v>1.903044257863349e-06</v>
       </c>
       <c r="S34" t="n">
-        <v>1.162169984531319e-11</v>
+        <v>6.296645428086659e-09</v>
       </c>
       <c r="T34" t="n">
-        <v>6.132078404924498e-08</v>
+        <v>3.618406328788021e-06</v>
       </c>
       <c r="U34" t="n">
-        <v>9.591920094820198e-12</v>
+        <v>2.402746982488466e-09</v>
       </c>
       <c r="V34" t="n">
-        <v>2.220504557324529e-14</v>
+        <v>2.561301822393333e-14</v>
       </c>
       <c r="W34" t="n">
-        <v>2.220504557324529e-14</v>
+        <v>1.155900237321977e-12</v>
       </c>
       <c r="X34" t="n">
-        <v>2.810884271787698e-10</v>
+        <v>2.302830414140775e-10</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.9999205632574907</v>
+        <v>0.9959485238982584</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
@@ -3511,80 +3511,80 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35206.fa</t>
+          <t>even_MAG-GUT3702.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001559604860472696</v>
+        <v>2.18555141009511e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01682173801193</v>
+        <v>2.208344310999619e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002794292153561628</v>
+        <v>0.001646625783897666</v>
       </c>
       <c r="E35" t="n">
-        <v>0.001003686771807722</v>
+        <v>0.004875914725348812</v>
       </c>
       <c r="F35" t="n">
-        <v>0.006013059823466575</v>
+        <v>0.0001614648379792847</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0008653990505823604</v>
+        <v>0.0001807920868884508</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9694063659584203</v>
+        <v>0.9920821187041732</v>
       </c>
       <c r="I35" t="n">
-        <v>2.08840794781885e-05</v>
+        <v>8.797193169818295e-07</v>
       </c>
       <c r="J35" t="n">
-        <v>5.057168089692956e-06</v>
+        <v>2.976022199036343e-06</v>
       </c>
       <c r="K35" t="n">
-        <v>1.298432860223205e-07</v>
+        <v>1.335118679113091e-07</v>
       </c>
       <c r="L35" t="n">
-        <v>3.205940275134861e-09</v>
+        <v>1.139276980822414e-08</v>
       </c>
       <c r="M35" t="n">
-        <v>5.157238586231587e-05</v>
+        <v>0.0002842765215674288</v>
       </c>
       <c r="N35" t="n">
-        <v>4.331656608417499e-07</v>
+        <v>6.123066006216721e-08</v>
       </c>
       <c r="O35" t="n">
-        <v>3.265578982484329e-14</v>
+        <v>2.220253980562234e-14</v>
       </c>
       <c r="P35" t="n">
-        <v>9.960980747411656e-12</v>
+        <v>2.456100335160421e-11</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.682909314762943e-06</v>
+        <v>4.081479336525528e-07</v>
       </c>
       <c r="R35" t="n">
-        <v>0.001169116181879922</v>
+        <v>0.0007090006027589404</v>
       </c>
       <c r="S35" t="n">
-        <v>6.608728781248393e-06</v>
+        <v>1.045133393894771e-05</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0002773183292917023</v>
+        <v>4.513905921384791e-07</v>
       </c>
       <c r="U35" t="n">
-        <v>2.617758710618618e-09</v>
+        <v>8.38274988391203e-10</v>
       </c>
       <c r="V35" t="n">
-        <v>3.265578982484328e-14</v>
+        <v>2.220253980562234e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>2.833124801482896e-09</v>
+        <v>5.055954767732001e-09</v>
       </c>
       <c r="X35" t="n">
-        <v>2.041911264038879e-06</v>
+        <v>4.891120616717787e-07</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.9694063659584203</v>
+        <v>0.9920821187041732</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
@@ -3600,80 +3600,80 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35597.fa</t>
+          <t>even_MAG-GUT37154.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.002357219623122e-13</v>
+        <v>1.066858830919459e-11</v>
       </c>
       <c r="C36" t="n">
-        <v>4.350442676186924e-07</v>
+        <v>2.327021541148794e-07</v>
       </c>
       <c r="D36" t="n">
-        <v>2.645392647408852e-05</v>
+        <v>0.001116216646143522</v>
       </c>
       <c r="E36" t="n">
-        <v>5.578005917585909e-06</v>
+        <v>0.0001451177187949118</v>
       </c>
       <c r="F36" t="n">
-        <v>1.186339873462101e-06</v>
+        <v>0.0001146464257071446</v>
       </c>
       <c r="G36" t="n">
-        <v>1.148380388270218e-07</v>
+        <v>7.086434286879775e-07</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9999455068726696</v>
+        <v>0.9986169065030477</v>
       </c>
       <c r="I36" t="n">
-        <v>2.220442304405784e-14</v>
+        <v>2.220324049254682e-14</v>
       </c>
       <c r="J36" t="n">
-        <v>1.718556650545758e-05</v>
+        <v>8.07931922466799e-07</v>
       </c>
       <c r="K36" t="n">
-        <v>1.6965075924163e-11</v>
+        <v>2.413620433124835e-10</v>
       </c>
       <c r="L36" t="n">
-        <v>5.656860470364795e-13</v>
+        <v>7.149128727152001e-12</v>
       </c>
       <c r="M36" t="n">
-        <v>1.810000510947672e-08</v>
+        <v>4.675531029937204e-08</v>
       </c>
       <c r="N36" t="n">
-        <v>6.768049509124818e-11</v>
+        <v>4.465001059046017e-10</v>
       </c>
       <c r="O36" t="n">
-        <v>2.220442304405784e-14</v>
+        <v>2.220324049254682e-14</v>
       </c>
       <c r="P36" t="n">
-        <v>2.220442304405784e-14</v>
+        <v>2.220324049254682e-14</v>
       </c>
       <c r="Q36" t="n">
-        <v>5.670000310400824e-10</v>
+        <v>5.49355820274389e-10</v>
       </c>
       <c r="R36" t="n">
-        <v>3.520520943923154e-06</v>
+        <v>5.314359356142731e-06</v>
       </c>
       <c r="S36" t="n">
-        <v>6.319324077704226e-13</v>
+        <v>1.021040752144491e-10</v>
       </c>
       <c r="T36" t="n">
-        <v>9.831836594622688e-11</v>
+        <v>6.987531386202059e-10</v>
       </c>
       <c r="U36" t="n">
-        <v>2.072242638312223e-11</v>
+        <v>2.492761931746865e-10</v>
       </c>
       <c r="V36" t="n">
-        <v>2.220442304405784e-14</v>
+        <v>2.220324049254682e-14</v>
       </c>
       <c r="W36" t="n">
-        <v>2.220442304405784e-14</v>
+        <v>2.220324049254682e-14</v>
       </c>
       <c r="X36" t="n">
-        <v>1.320923741459029e-11</v>
+        <v>8.854776837484614e-12</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.9999455068726696</v>
+        <v>0.9986169065030477</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
@@ -3689,80 +3689,80 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36441.fa</t>
+          <t>even_MAG-GUT37934.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.292787216187334e-06</v>
+        <v>3.876853781590002e-11</v>
       </c>
       <c r="C37" t="n">
-        <v>1.224047964912735e-05</v>
+        <v>1.252020760193056e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000807826080758336</v>
+        <v>6.300799064372943e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>7.591432220401239e-05</v>
+        <v>0.0001618885244518992</v>
       </c>
       <c r="F37" t="n">
-        <v>1.929568777754915e-05</v>
+        <v>6.592557553111585e-07</v>
       </c>
       <c r="G37" t="n">
-        <v>4.258268643683566e-05</v>
+        <v>5.298850573100679e-07</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9979758619326453</v>
+        <v>0.9997203352645817</v>
       </c>
       <c r="I37" t="n">
-        <v>5.297090014977661e-09</v>
+        <v>2.220470639820233e-14</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0001248317334047134</v>
+        <v>1.75610176215914e-05</v>
       </c>
       <c r="K37" t="n">
-        <v>5.021958857858594e-09</v>
+        <v>1.209853917634877e-10</v>
       </c>
       <c r="L37" t="n">
-        <v>3.920730247335664e-11</v>
+        <v>3.642075960965653e-12</v>
       </c>
       <c r="M37" t="n">
-        <v>2.607992414736328e-05</v>
+        <v>1.425297348808188e-07</v>
       </c>
       <c r="N37" t="n">
-        <v>3.166370839441179e-08</v>
+        <v>5.414114778960354e-10</v>
       </c>
       <c r="O37" t="n">
-        <v>2.22039814528963e-14</v>
+        <v>2.220470639820231e-14</v>
       </c>
       <c r="P37" t="n">
-        <v>2.22039814528963e-14</v>
+        <v>2.220470639820231e-14</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.993439702828931e-07</v>
+        <v>2.101469758676202e-09</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0009102567698115185</v>
+        <v>3.462043888494063e-05</v>
       </c>
       <c r="S37" t="n">
-        <v>4.211767438902104e-08</v>
+        <v>5.579255505948413e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>1.368049285135391e-06</v>
+        <v>1.373196674238791e-10</v>
       </c>
       <c r="U37" t="n">
-        <v>7.429845798578978e-11</v>
+        <v>5.020394103299632e-11</v>
       </c>
       <c r="V37" t="n">
-        <v>2.22039814528963e-14</v>
+        <v>2.220470639820231e-14</v>
       </c>
       <c r="W37" t="n">
-        <v>9.296312090258984e-12</v>
+        <v>2.220470639820231e-14</v>
       </c>
       <c r="X37" t="n">
-        <v>6.597939337472478e-08</v>
+        <v>7.803856015379081e-11</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.9979758619326453</v>
+        <v>0.9997203352645817</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
@@ -3778,169 +3778,169 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3651.fa</t>
+          <t>even_MAG-GUT3853.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.220438865782764e-14</v>
+        <v>2.558348933150502e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>1.339921139285142e-07</v>
+        <v>3.939477414378558e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>7.858979626662696e-05</v>
+        <v>1.489717364494622e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>2.582447660103201e-06</v>
+        <v>1.76242260917115e-09</v>
       </c>
       <c r="F38" t="n">
-        <v>1.482315665592374e-06</v>
+        <v>2.227110262694602e-05</v>
       </c>
       <c r="G38" t="n">
-        <v>9.902555422934602e-09</v>
+        <v>0.9941740221242429</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9999160236211212</v>
+        <v>4.338098911414021e-06</v>
       </c>
       <c r="I38" t="n">
-        <v>2.220438865782764e-14</v>
+        <v>3.304087764175002e-06</v>
       </c>
       <c r="J38" t="n">
-        <v>8.039845240947499e-07</v>
+        <v>1.696811395968967e-06</v>
       </c>
       <c r="K38" t="n">
-        <v>1.525952364937315e-11</v>
+        <v>9.843549855105518e-05</v>
       </c>
       <c r="L38" t="n">
-        <v>2.19183742866894e-12</v>
+        <v>0.001851862804827628</v>
       </c>
       <c r="M38" t="n">
-        <v>4.863406862811628e-10</v>
+        <v>0.002789031537707069</v>
       </c>
       <c r="N38" t="n">
-        <v>1.984615613630983e-11</v>
+        <v>0.0003087197302631209</v>
       </c>
       <c r="O38" t="n">
-        <v>2.220438865782764e-14</v>
+        <v>2.220202818464869e-14</v>
       </c>
       <c r="P38" t="n">
-        <v>2.220438865782764e-14</v>
+        <v>6.596028265886941e-13</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.816199479602093e-11</v>
+        <v>0.0002507263483444238</v>
       </c>
       <c r="R38" t="n">
-        <v>3.732396869382628e-07</v>
+        <v>7.19744357679493e-07</v>
       </c>
       <c r="S38" t="n">
-        <v>9.155942618614647e-14</v>
+        <v>3.288216977187277e-10</v>
       </c>
       <c r="T38" t="n">
-        <v>8.357271199655515e-11</v>
+        <v>2.220202818464869e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>5.162948830552403e-11</v>
+        <v>1.36068340686072e-07</v>
       </c>
       <c r="V38" t="n">
-        <v>2.220438865782764e-14</v>
+        <v>1.242468635529105e-08</v>
       </c>
       <c r="W38" t="n">
-        <v>2.220438865782764e-14</v>
+        <v>3.235314323540091e-11</v>
       </c>
       <c r="X38" t="n">
-        <v>3.179292900834971e-12</v>
+        <v>0.0004401737109970491</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.9999160236211212</v>
+        <v>0.9941740221242429</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36692.fa</t>
+          <t>even_MAG-GUT38584.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.100157351375592e-07</v>
+        <v>3.71081256314803e-10</v>
       </c>
       <c r="C39" t="n">
-        <v>4.723934705152672e-06</v>
+        <v>1.391697881243959e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001154878227622166</v>
+        <v>5.079316214050863e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001588546835920697</v>
+        <v>0.0002002196895769406</v>
       </c>
       <c r="F39" t="n">
-        <v>1.349277363943696e-05</v>
+        <v>0.0003397471055271473</v>
       </c>
       <c r="G39" t="n">
-        <v>9.861467736627292e-06</v>
+        <v>3.758104603881854e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9959485238982584</v>
+        <v>0.9979303846239335</v>
       </c>
       <c r="I39" t="n">
-        <v>3.297699729000133e-10</v>
+        <v>1.039582662429661e-10</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0012259748389599</v>
+        <v>1.641639009621327e-06</v>
       </c>
       <c r="K39" t="n">
-        <v>5.7109436395093e-09</v>
+        <v>1.235325881398259e-09</v>
       </c>
       <c r="L39" t="n">
-        <v>7.451317759475731e-11</v>
+        <v>3.817369996214511e-12</v>
       </c>
       <c r="M39" t="n">
-        <v>4.793069628469079e-05</v>
+        <v>1.936980416909147e-06</v>
       </c>
       <c r="N39" t="n">
-        <v>1.919117476498624e-08</v>
+        <v>3.392462765368522e-10</v>
       </c>
       <c r="O39" t="n">
-        <v>2.561301822393344e-14</v>
+        <v>2.220255930438424e-14</v>
       </c>
       <c r="P39" t="n">
-        <v>2.561301822393344e-14</v>
+        <v>2.220255930438424e-14</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.016232412368888e-07</v>
+        <v>1.724596860790976e-09</v>
       </c>
       <c r="R39" t="n">
-        <v>1.903044257863349e-06</v>
+        <v>0.00146985480567008</v>
       </c>
       <c r="S39" t="n">
-        <v>6.296645428086659e-09</v>
+        <v>1.663903410262406e-09</v>
       </c>
       <c r="T39" t="n">
-        <v>3.618406328788021e-06</v>
+        <v>2.659917217710176e-07</v>
       </c>
       <c r="U39" t="n">
-        <v>2.402746982488466e-09</v>
+        <v>1.321515133899405e-11</v>
       </c>
       <c r="V39" t="n">
-        <v>2.561301822393333e-14</v>
+        <v>2.220255930438424e-14</v>
       </c>
       <c r="W39" t="n">
-        <v>1.155900237321977e-12</v>
+        <v>2.220255930438424e-14</v>
       </c>
       <c r="X39" t="n">
-        <v>2.302830414140775e-10</v>
+        <v>7.442850220281814e-10</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.9959485238982584</v>
+        <v>0.9979303846239335</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
@@ -3956,80 +3956,80 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3702.fa</t>
+          <t>even_MAG-GUT39152.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.18555141009511e-05</v>
+        <v>7.79020516672228e-10</v>
       </c>
       <c r="C40" t="n">
-        <v>2.208344310999619e-05</v>
+        <v>6.659855364315895e-08</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001646625783897666</v>
+        <v>0.000249604080841813</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004875914725348812</v>
+        <v>8.047679266578795e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0001614648379792847</v>
+        <v>9.009778759231394e-06</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0001807920868884508</v>
+        <v>1.022940139769701e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9920821187041732</v>
+        <v>0.9988705690046435</v>
       </c>
       <c r="I40" t="n">
-        <v>8.797193169818295e-07</v>
+        <v>5.739452465229539e-14</v>
       </c>
       <c r="J40" t="n">
-        <v>2.976022199036343e-06</v>
+        <v>1.153202246621826e-06</v>
       </c>
       <c r="K40" t="n">
-        <v>1.335118679113091e-07</v>
+        <v>3.565709815827496e-10</v>
       </c>
       <c r="L40" t="n">
-        <v>1.139276980822414e-08</v>
+        <v>8.827925212328336e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0002842765215674288</v>
+        <v>1.242996707983312e-06</v>
       </c>
       <c r="N40" t="n">
-        <v>6.123066006216721e-08</v>
+        <v>1.130565939840494e-09</v>
       </c>
       <c r="O40" t="n">
-        <v>2.220253980562234e-14</v>
+        <v>2.220340572183596e-14</v>
       </c>
       <c r="P40" t="n">
-        <v>2.456100335160421e-11</v>
+        <v>2.220340572183596e-14</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.081479336525528e-07</v>
+        <v>8.732743284108122e-09</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0007090006027589404</v>
+        <v>0.0007868346120817089</v>
       </c>
       <c r="S40" t="n">
-        <v>1.045133393894771e-05</v>
+        <v>2.181565098205569e-11</v>
       </c>
       <c r="T40" t="n">
-        <v>4.513905921384791e-07</v>
+        <v>8.767529906828686e-09</v>
       </c>
       <c r="U40" t="n">
-        <v>8.38274988391203e-10</v>
+        <v>4.071055175764966e-11</v>
       </c>
       <c r="V40" t="n">
-        <v>2.220253980562234e-14</v>
+        <v>2.220340572183596e-14</v>
       </c>
       <c r="W40" t="n">
-        <v>5.055954767732001e-09</v>
+        <v>2.220340572183596e-14</v>
       </c>
       <c r="X40" t="n">
-        <v>4.891120616717787e-07</v>
+        <v>1.633740485634289e-10</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.9920821187041732</v>
+        <v>0.9988705690046435</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
@@ -4045,169 +4045,169 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37154.fa</t>
+          <t>even_MAG-GUT39512.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.066858830919459e-11</v>
+        <v>3.165240133756326e-08</v>
       </c>
       <c r="C41" t="n">
-        <v>2.327021541148794e-07</v>
+        <v>2.081402259391364e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001116216646143522</v>
+        <v>9.078705226701621e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0001451177187949118</v>
+        <v>3.08916872160164e-10</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0001146464257071446</v>
+        <v>8.837158747253894e-05</v>
       </c>
       <c r="G41" t="n">
-        <v>7.086434286879775e-07</v>
+        <v>0.9929747626261335</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9986169065030477</v>
+        <v>6.4470451506306e-07</v>
       </c>
       <c r="I41" t="n">
-        <v>2.220324049254682e-14</v>
+        <v>1.699182322941938e-06</v>
       </c>
       <c r="J41" t="n">
-        <v>8.07931922466799e-07</v>
+        <v>1.224927886599099e-06</v>
       </c>
       <c r="K41" t="n">
-        <v>2.413620433124835e-10</v>
+        <v>0.0004448669111088276</v>
       </c>
       <c r="L41" t="n">
-        <v>7.149128727152001e-12</v>
+        <v>0.003530564261302656</v>
       </c>
       <c r="M41" t="n">
-        <v>4.675531029937204e-08</v>
+        <v>0.001440175489460061</v>
       </c>
       <c r="N41" t="n">
-        <v>4.465001059046017e-10</v>
+        <v>0.0008192654348696677</v>
       </c>
       <c r="O41" t="n">
-        <v>2.220324049254682e-14</v>
+        <v>2.220215766856671e-14</v>
       </c>
       <c r="P41" t="n">
-        <v>2.220324049254682e-14</v>
+        <v>3.110567867356942e-13</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.49355820274389e-10</v>
+        <v>0.000287190671266709</v>
       </c>
       <c r="R41" t="n">
-        <v>5.314359356142731e-06</v>
+        <v>2.721597430113952e-06</v>
       </c>
       <c r="S41" t="n">
-        <v>1.021040752144491e-10</v>
+        <v>3.054242120254755e-11</v>
       </c>
       <c r="T41" t="n">
-        <v>6.987531386202059e-10</v>
+        <v>2.220215766856671e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>2.492761931746865e-10</v>
+        <v>3.760092273997241e-06</v>
       </c>
       <c r="V41" t="n">
-        <v>2.220324049254682e-14</v>
+        <v>3.913613476826996e-08</v>
       </c>
       <c r="W41" t="n">
-        <v>2.220324049254682e-14</v>
+        <v>1.65198209785242e-12</v>
       </c>
       <c r="X41" t="n">
-        <v>8.854776837484614e-12</v>
+        <v>0.0003829594908378457</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.9986169065030477</v>
+        <v>0.9929747626261335</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37934.fa</t>
+          <t>even_MAG-GUT4062.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.876853781590002e-11</v>
+        <v>2.35818847984051e-09</v>
       </c>
       <c r="C42" t="n">
-        <v>1.252020760193056e-06</v>
+        <v>2.425654209791214e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>6.300799064372943e-05</v>
+        <v>0.000232187191855306</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0001618885244518992</v>
+        <v>0.0001062472277336068</v>
       </c>
       <c r="F42" t="n">
-        <v>6.592557553111585e-07</v>
+        <v>3.402467473882943e-05</v>
       </c>
       <c r="G42" t="n">
-        <v>5.298850573100679e-07</v>
+        <v>2.546252377966123e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9997203352645817</v>
+        <v>0.9995474678067596</v>
       </c>
       <c r="I42" t="n">
-        <v>2.220470639820233e-14</v>
+        <v>2.594847628068661e-11</v>
       </c>
       <c r="J42" t="n">
-        <v>1.75610176215914e-05</v>
+        <v>7.624598280958639e-06</v>
       </c>
       <c r="K42" t="n">
-        <v>1.209853917634877e-10</v>
+        <v>6.26047767439208e-10</v>
       </c>
       <c r="L42" t="n">
-        <v>3.642075960965653e-12</v>
+        <v>2.241112300923834e-11</v>
       </c>
       <c r="M42" t="n">
-        <v>1.425297348808188e-07</v>
+        <v>1.921750447007856e-06</v>
       </c>
       <c r="N42" t="n">
-        <v>5.414114778960354e-10</v>
+        <v>4.655111151051288e-09</v>
       </c>
       <c r="O42" t="n">
-        <v>2.220470639820231e-14</v>
+        <v>2.220415410645109e-14</v>
       </c>
       <c r="P42" t="n">
-        <v>2.220470639820231e-14</v>
+        <v>2.220415410645109e-14</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.101469758676202e-09</v>
+        <v>3.332061385311048e-08</v>
       </c>
       <c r="R42" t="n">
-        <v>3.462043888494063e-05</v>
+        <v>6.449168794501908e-05</v>
       </c>
       <c r="S42" t="n">
-        <v>5.579255505948413e-13</v>
+        <v>3.165596877206581e-09</v>
       </c>
       <c r="T42" t="n">
-        <v>1.373196674238791e-10</v>
+        <v>9.234011296318224e-07</v>
       </c>
       <c r="U42" t="n">
-        <v>5.020394103299632e-11</v>
+        <v>1.454057712771119e-10</v>
       </c>
       <c r="V42" t="n">
-        <v>2.220470639820231e-14</v>
+        <v>2.220415410645109e-14</v>
       </c>
       <c r="W42" t="n">
-        <v>2.220470639820231e-14</v>
+        <v>4.513663703344315e-13</v>
       </c>
       <c r="X42" t="n">
-        <v>7.803856015379081e-11</v>
+        <v>9.543468070852641e-08</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.9997203352645817</v>
+        <v>0.9995474678067596</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
@@ -4223,169 +4223,169 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3853.fa</t>
+          <t>even_MAG-GUT4125.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.558348933150502e-07</v>
+        <v>3.176764837848904e-11</v>
       </c>
       <c r="C43" t="n">
-        <v>3.939477414378558e-05</v>
+        <v>4.50696308372114e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>1.489717364494622e-05</v>
+        <v>6.400390074557342e-05</v>
       </c>
       <c r="E43" t="n">
-        <v>1.76242260917115e-09</v>
+        <v>2.012301125778478e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>2.227110262694602e-05</v>
+        <v>5.288621031769484e-06</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9941740221242429</v>
+        <v>1.634316856373384e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>4.338098911414021e-06</v>
+        <v>0.9998589219765578</v>
       </c>
       <c r="I43" t="n">
-        <v>3.304087764175002e-06</v>
+        <v>2.221144721020659e-14</v>
       </c>
       <c r="J43" t="n">
-        <v>1.696811395968967e-06</v>
+        <v>1.912239637283017e-05</v>
       </c>
       <c r="K43" t="n">
-        <v>9.843549855105518e-05</v>
+        <v>1.119794420663857e-10</v>
       </c>
       <c r="L43" t="n">
-        <v>0.001851862804827628</v>
+        <v>1.756891952338324e-12</v>
       </c>
       <c r="M43" t="n">
-        <v>0.002789031537707069</v>
+        <v>9.032941612542134e-07</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0003087197302631209</v>
+        <v>1.002411490658739e-09</v>
       </c>
       <c r="O43" t="n">
-        <v>2.220202818464869e-14</v>
+        <v>2.221144721020657e-14</v>
       </c>
       <c r="P43" t="n">
-        <v>6.596028265886941e-13</v>
+        <v>2.221144721020657e-14</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0002507263483444238</v>
+        <v>9.816044471872707e-09</v>
       </c>
       <c r="R43" t="n">
-        <v>7.19744357679493e-07</v>
+        <v>2.95391509211759e-05</v>
       </c>
       <c r="S43" t="n">
-        <v>3.288216977187277e-10</v>
+        <v>4.379822611535787e-11</v>
       </c>
       <c r="T43" t="n">
-        <v>2.220202818464869e-14</v>
+        <v>9.387765005584475e-11</v>
       </c>
       <c r="U43" t="n">
-        <v>1.36068340686072e-07</v>
+        <v>3.583461538787694e-11</v>
       </c>
       <c r="V43" t="n">
-        <v>1.242468635529105e-08</v>
+        <v>2.221144721020657e-14</v>
       </c>
       <c r="W43" t="n">
-        <v>3.235314323540091e-11</v>
+        <v>2.221144721020657e-14</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0004401737109970491</v>
+        <v>1.498205706729172e-09</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.9941740221242429</v>
+        <v>0.9998589219765578</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>g__Dysosmobacter</t>
+          <t>g__ER4</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>g__Dysosmobacter</t>
+          <t>g__ER4</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38584.fa</t>
+          <t>even_MAG-GUT4207.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.71081256314803e-10</v>
+        <v>8.500784856303143e-12</v>
       </c>
       <c r="C44" t="n">
-        <v>1.391697881243959e-06</v>
+        <v>7.993261074730809e-08</v>
       </c>
       <c r="D44" t="n">
-        <v>5.079316214050863e-05</v>
+        <v>4.994306809463316e-06</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0002002196895769406</v>
+        <v>3.940296186728746e-05</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0003397471055271473</v>
+        <v>4.980649609052512e-05</v>
       </c>
       <c r="G44" t="n">
-        <v>3.758104603881854e-06</v>
+        <v>3.318705301474001e-07</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9979303846239335</v>
+        <v>0.9996138190127772</v>
       </c>
       <c r="I44" t="n">
-        <v>1.039582662429661e-10</v>
+        <v>2.220409200974953e-14</v>
       </c>
       <c r="J44" t="n">
-        <v>1.641639009621327e-06</v>
+        <v>0.0002860078484335246</v>
       </c>
       <c r="K44" t="n">
-        <v>1.235325881398259e-09</v>
+        <v>8.028767374265111e-11</v>
       </c>
       <c r="L44" t="n">
-        <v>3.817369996214511e-12</v>
+        <v>4.549262758923646e-11</v>
       </c>
       <c r="M44" t="n">
-        <v>1.936980416909147e-06</v>
+        <v>2.956459246713851e-07</v>
       </c>
       <c r="N44" t="n">
-        <v>3.392462765368522e-10</v>
+        <v>9.723720374775968e-11</v>
       </c>
       <c r="O44" t="n">
-        <v>2.220255930438424e-14</v>
+        <v>2.220409200974953e-14</v>
       </c>
       <c r="P44" t="n">
-        <v>2.220255930438424e-14</v>
+        <v>2.220409200974953e-14</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.724596860790976e-09</v>
+        <v>4.090903895243476e-08</v>
       </c>
       <c r="R44" t="n">
-        <v>0.00146985480567008</v>
+        <v>1.002724940176229e-06</v>
       </c>
       <c r="S44" t="n">
-        <v>1.663903410262406e-09</v>
+        <v>4.100006676999129e-10</v>
       </c>
       <c r="T44" t="n">
-        <v>2.659917217710176e-07</v>
+        <v>4.216276523384968e-06</v>
       </c>
       <c r="U44" t="n">
-        <v>1.321515133899405e-11</v>
+        <v>5.714472591505823e-10</v>
       </c>
       <c r="V44" t="n">
-        <v>2.220255930438424e-14</v>
+        <v>2.220409200974953e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>2.220255930438424e-14</v>
+        <v>2.220409200974953e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>7.442850220281814e-10</v>
+        <v>8.013769762432882e-10</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.9979303846239335</v>
+        <v>0.9996138190127772</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
@@ -4401,80 +4401,80 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39152.fa</t>
+          <t>even_MAG-GUT4832.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.79020516672228e-10</v>
+        <v>1.878637292305792e-11</v>
       </c>
       <c r="C45" t="n">
-        <v>6.659855364315895e-08</v>
+        <v>9.244820411456818e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>0.000249604080841813</v>
+        <v>4.001639989137325e-05</v>
       </c>
       <c r="E45" t="n">
-        <v>8.047679266578795e-05</v>
+        <v>0.0007532114025378181</v>
       </c>
       <c r="F45" t="n">
-        <v>9.009778759231394e-06</v>
+        <v>6.456950437652497e-06</v>
       </c>
       <c r="G45" t="n">
-        <v>1.022940139769701e-06</v>
+        <v>4.396490211206212e-07</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9988705690046435</v>
+        <v>0.9991820879314732</v>
       </c>
       <c r="I45" t="n">
-        <v>5.739452465229539e-14</v>
+        <v>2.220403631700631e-14</v>
       </c>
       <c r="J45" t="n">
-        <v>1.153202246621826e-06</v>
+        <v>1.323343031635628e-05</v>
       </c>
       <c r="K45" t="n">
-        <v>3.565709815827496e-10</v>
+        <v>4.83377235663633e-11</v>
       </c>
       <c r="L45" t="n">
-        <v>8.827925212328336e-13</v>
+        <v>4.024487377021752e-13</v>
       </c>
       <c r="M45" t="n">
-        <v>1.242996707983312e-06</v>
+        <v>2.209267737719457e-07</v>
       </c>
       <c r="N45" t="n">
-        <v>1.130565939840494e-09</v>
+        <v>3.080293676097715e-10</v>
       </c>
       <c r="O45" t="n">
-        <v>2.220340572183596e-14</v>
+        <v>2.220403631700631e-14</v>
       </c>
       <c r="P45" t="n">
-        <v>2.220340572183596e-14</v>
+        <v>2.220403631700631e-14</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.732743284108122e-09</v>
+        <v>2.509737637790526e-09</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0007868346120817089</v>
+        <v>3.402898655255883e-06</v>
       </c>
       <c r="S45" t="n">
-        <v>2.181565098205569e-11</v>
+        <v>4.303997637952519e-11</v>
       </c>
       <c r="T45" t="n">
-        <v>8.767529906828686e-09</v>
+        <v>2.857861154012253e-09</v>
       </c>
       <c r="U45" t="n">
-        <v>4.071055175764966e-11</v>
+        <v>7.749800056638478e-11</v>
       </c>
       <c r="V45" t="n">
-        <v>2.220340572183596e-14</v>
+        <v>2.220403631700631e-14</v>
       </c>
       <c r="W45" t="n">
-        <v>2.220340572183596e-14</v>
+        <v>2.220403631700631e-14</v>
       </c>
       <c r="X45" t="n">
-        <v>1.633740485634289e-10</v>
+        <v>6.504868170620844e-11</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.9988705690046435</v>
+        <v>0.9991820879314732</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
@@ -4490,169 +4490,169 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39512.fa</t>
+          <t>even_MAG-GUT50219.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.165240133756326e-08</v>
+        <v>1.876039433443726e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>2.081402259391364e-05</v>
+        <v>9.60012452389065e-12</v>
       </c>
       <c r="D46" t="n">
-        <v>9.078705226701621e-07</v>
+        <v>6.323385389330768e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>3.08916872160164e-10</v>
+        <v>3.897791186216505e-08</v>
       </c>
       <c r="F46" t="n">
-        <v>8.837158747253894e-05</v>
+        <v>3.276931532668215e-06</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9929747626261335</v>
+        <v>1.045093974828826e-07</v>
       </c>
       <c r="H46" t="n">
-        <v>6.4470451506306e-07</v>
+        <v>0.8024586011225209</v>
       </c>
       <c r="I46" t="n">
-        <v>1.699182322941938e-06</v>
+        <v>2.219629148758433e-14</v>
       </c>
       <c r="J46" t="n">
-        <v>1.224927886599099e-06</v>
+        <v>0.0005844880179382197</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0004448669111088276</v>
+        <v>4.752046371443475e-11</v>
       </c>
       <c r="L46" t="n">
-        <v>0.003530564261302656</v>
+        <v>1.775659816432368e-12</v>
       </c>
       <c r="M46" t="n">
-        <v>0.001440175489460061</v>
+        <v>1.554565247794417e-08</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0008192654348696677</v>
+        <v>3.391377614504446e-14</v>
       </c>
       <c r="O46" t="n">
-        <v>2.220215766856671e-14</v>
+        <v>2.219629148758433e-14</v>
       </c>
       <c r="P46" t="n">
-        <v>3.110567867356942e-13</v>
+        <v>2.219629148758433e-14</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.000287190671266709</v>
+        <v>9.231769806476744e-11</v>
       </c>
       <c r="R46" t="n">
-        <v>2.721597430113952e-06</v>
+        <v>1.087809076350384e-07</v>
       </c>
       <c r="S46" t="n">
-        <v>3.054242120254755e-11</v>
+        <v>2.164342619107176e-09</v>
       </c>
       <c r="T46" t="n">
-        <v>2.220215766856671e-14</v>
+        <v>0.1969527314458292</v>
       </c>
       <c r="U46" t="n">
-        <v>3.760092273997241e-06</v>
+        <v>1.15061704337477e-11</v>
       </c>
       <c r="V46" t="n">
-        <v>3.913613476826996e-08</v>
+        <v>2.219629148758433e-14</v>
       </c>
       <c r="W46" t="n">
-        <v>1.65198209785242e-12</v>
+        <v>2.219629148758433e-14</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0003829594908378457</v>
+        <v>2.375165092098374e-12</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.9929747626261335</v>
+        <v>0.8024586011225209</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>g__Dysosmobacter</t>
+          <t>g__ER4</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>g__Dysosmobacter</t>
+          <t>g__ER4</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4044.fa</t>
+          <t>even_MAG-GUT54544.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5.75143899009529e-13</v>
+        <v>6.083797036067429e-10</v>
       </c>
       <c r="C47" t="n">
-        <v>1.800795712032714e-07</v>
+        <v>1.421784435531065e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>4.726714589440839e-07</v>
+        <v>8.022132163091095e-06</v>
       </c>
       <c r="E47" t="n">
-        <v>0.00018474688716387</v>
+        <v>0.0006593901094991261</v>
       </c>
       <c r="F47" t="n">
-        <v>3.364304418871941e-05</v>
+        <v>3.608731329007954e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>2.012257421644535e-07</v>
+        <v>1.496454692370975e-05</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9997689492553348</v>
+        <v>0.9974341163142674</v>
       </c>
       <c r="I47" t="n">
-        <v>2.22042938157772e-14</v>
+        <v>1.770047269257449e-11</v>
       </c>
       <c r="J47" t="n">
-        <v>1.052507936752821e-05</v>
+        <v>9.013159389424978e-06</v>
       </c>
       <c r="K47" t="n">
-        <v>1.786519513270516e-11</v>
+        <v>3.464405257653591e-10</v>
       </c>
       <c r="L47" t="n">
-        <v>1.628289932215041e-12</v>
+        <v>2.125568361366833e-12</v>
       </c>
       <c r="M47" t="n">
-        <v>4.715300895038905e-07</v>
+        <v>4.108384385042767e-06</v>
       </c>
       <c r="N47" t="n">
-        <v>6.586194592488286e-12</v>
+        <v>2.095921369177541e-09</v>
       </c>
       <c r="O47" t="n">
-        <v>2.22042938157772e-14</v>
+        <v>2.220203183416536e-14</v>
       </c>
       <c r="P47" t="n">
-        <v>2.22042938157772e-14</v>
+        <v>2.220203183416536e-14</v>
       </c>
       <c r="Q47" t="n">
-        <v>3.753649165421148e-09</v>
+        <v>1.491391453219395e-08</v>
       </c>
       <c r="R47" t="n">
-        <v>4.180172022437691e-07</v>
+        <v>0.001834125095711139</v>
       </c>
       <c r="S47" t="n">
-        <v>1.238200350503496e-10</v>
+        <v>6.787193340165647e-09</v>
       </c>
       <c r="T47" t="n">
-        <v>3.881951991718411e-07</v>
+        <v>2.937160553977462e-09</v>
       </c>
       <c r="U47" t="n">
-        <v>4.317834322770177e-11</v>
+        <v>5.904871028424571e-12</v>
       </c>
       <c r="V47" t="n">
-        <v>2.22042938157772e-14</v>
+        <v>2.220203183416536e-14</v>
       </c>
       <c r="W47" t="n">
-        <v>2.22042938157772e-14</v>
+        <v>2.220203183416536e-14</v>
       </c>
       <c r="X47" t="n">
-        <v>6.726846951908396e-11</v>
+        <v>3.051097803458419e-09</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.9997689492553348</v>
+        <v>0.9974341163142674</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
@@ -4668,80 +4668,80 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4062.fa</t>
+          <t>even_MAG-GUT56361.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.35818847984051e-09</v>
+        <v>6.432370503106826e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>2.425654209791214e-06</v>
+        <v>0.001396388388766193</v>
       </c>
       <c r="D48" t="n">
-        <v>0.000232187191855306</v>
+        <v>0.01311743439356952</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0001062472277336068</v>
+        <v>0.004964396378058278</v>
       </c>
       <c r="F48" t="n">
-        <v>3.402467473882943e-05</v>
+        <v>0.0002548353313812934</v>
       </c>
       <c r="G48" t="n">
-        <v>2.546252377966123e-06</v>
+        <v>0.0003082410567438027</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9995474678067596</v>
+        <v>0.9779774901680178</v>
       </c>
       <c r="I48" t="n">
-        <v>2.594847628068661e-11</v>
+        <v>1.425246494760024e-05</v>
       </c>
       <c r="J48" t="n">
-        <v>7.624598280958639e-06</v>
+        <v>1.424241768659207e-05</v>
       </c>
       <c r="K48" t="n">
-        <v>6.26047767439208e-10</v>
+        <v>6.631068836885505e-07</v>
       </c>
       <c r="L48" t="n">
-        <v>2.241112300923834e-11</v>
+        <v>1.987528235771301e-07</v>
       </c>
       <c r="M48" t="n">
-        <v>1.921750447007856e-06</v>
+        <v>0.0003168058363431237</v>
       </c>
       <c r="N48" t="n">
-        <v>4.655111151051288e-09</v>
+        <v>4.267184118928453e-07</v>
       </c>
       <c r="O48" t="n">
-        <v>2.220415410645109e-14</v>
+        <v>5.524153032701443e-14</v>
       </c>
       <c r="P48" t="n">
-        <v>2.220415410645109e-14</v>
+        <v>2.436054176605354e-10</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.332061385311048e-08</v>
+        <v>3.670555684430079e-06</v>
       </c>
       <c r="R48" t="n">
-        <v>6.449168794501908e-05</v>
+        <v>0.001080809706306536</v>
       </c>
       <c r="S48" t="n">
-        <v>3.165596877206581e-09</v>
+        <v>1.977068890370593e-06</v>
       </c>
       <c r="T48" t="n">
-        <v>9.234011296318224e-07</v>
+        <v>0.0004791243765045788</v>
       </c>
       <c r="U48" t="n">
-        <v>1.454057712771119e-10</v>
+        <v>8.789999974406461e-09</v>
       </c>
       <c r="V48" t="n">
-        <v>2.220415410645109e-14</v>
+        <v>5.52415303270143e-14</v>
       </c>
       <c r="W48" t="n">
-        <v>4.513663703344315e-13</v>
+        <v>4.099745223182695e-08</v>
       </c>
       <c r="X48" t="n">
-        <v>9.543468070852641e-08</v>
+        <v>4.669542781356814e-06</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.9995474678067596</v>
+        <v>0.9779774901680178</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
@@ -4757,169 +4757,169 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4125.fa</t>
+          <t>even_MAG-GUT56645.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3.176764837848904e-11</v>
+        <v>0.001374636677197265</v>
       </c>
       <c r="C49" t="n">
-        <v>4.50696308372114e-07</v>
+        <v>0.02599208314855805</v>
       </c>
       <c r="D49" t="n">
-        <v>6.400390074557342e-05</v>
+        <v>0.8357437707124683</v>
       </c>
       <c r="E49" t="n">
-        <v>2.012301125778478e-05</v>
+        <v>0.11843942677269</v>
       </c>
       <c r="F49" t="n">
-        <v>5.288621031769484e-06</v>
+        <v>4.681901367328719e-05</v>
       </c>
       <c r="G49" t="n">
-        <v>1.634316856373384e-06</v>
+        <v>0.008299267777143262</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9998589219765578</v>
+        <v>0.004429457381453819</v>
       </c>
       <c r="I49" t="n">
-        <v>2.221144721020659e-14</v>
+        <v>0.00062676529926006</v>
       </c>
       <c r="J49" t="n">
-        <v>1.912239637283017e-05</v>
+        <v>0.0001997072253336829</v>
       </c>
       <c r="K49" t="n">
-        <v>1.119794420663857e-10</v>
+        <v>0.0001471226792853964</v>
       </c>
       <c r="L49" t="n">
-        <v>1.756891952338324e-12</v>
+        <v>3.843957368565274e-10</v>
       </c>
       <c r="M49" t="n">
-        <v>9.032941612542134e-07</v>
+        <v>0.00161179387410861</v>
       </c>
       <c r="N49" t="n">
-        <v>1.002411490658739e-09</v>
+        <v>0.0002981048064289673</v>
       </c>
       <c r="O49" t="n">
-        <v>2.221144721020657e-14</v>
+        <v>1.759418108338152e-13</v>
       </c>
       <c r="P49" t="n">
-        <v>2.221144721020657e-14</v>
+        <v>1.092715344794571e-11</v>
       </c>
       <c r="Q49" t="n">
-        <v>9.816044471872707e-09</v>
+        <v>7.005020606462131e-06</v>
       </c>
       <c r="R49" t="n">
-        <v>2.95391509211759e-05</v>
+        <v>0.002778508818433592</v>
       </c>
       <c r="S49" t="n">
-        <v>4.379822611535787e-11</v>
+        <v>3.172170910850406e-07</v>
       </c>
       <c r="T49" t="n">
-        <v>9.387765005584475e-11</v>
+        <v>1.079931324009783e-09</v>
       </c>
       <c r="U49" t="n">
-        <v>3.583461538787694e-11</v>
+        <v>1.048132807383897e-09</v>
       </c>
       <c r="V49" t="n">
-        <v>2.221144721020657e-14</v>
+        <v>1.759418108338226e-13</v>
       </c>
       <c r="W49" t="n">
-        <v>2.221144721020657e-14</v>
+        <v>2.23168521902005e-06</v>
       </c>
       <c r="X49" t="n">
-        <v>1.498205706729172e-09</v>
+        <v>2.979367310193363e-06</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.9998589219765578</v>
+        <v>0.8357437707124683</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__CAG-110</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__CAG-110</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4207.fa</t>
+          <t>even_MAG-GUT56948.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>8.500784856303143e-12</v>
+        <v>1.932144801265565e-08</v>
       </c>
       <c r="C50" t="n">
-        <v>7.993261074730809e-08</v>
+        <v>4.765428460067944e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>4.994306809463316e-06</v>
+        <v>0.0001868683566369017</v>
       </c>
       <c r="E50" t="n">
-        <v>3.940296186728746e-05</v>
+        <v>0.0006615901158447592</v>
       </c>
       <c r="F50" t="n">
-        <v>4.980649609052512e-05</v>
+        <v>5.459708426335536e-07</v>
       </c>
       <c r="G50" t="n">
-        <v>3.318705301474001e-07</v>
+        <v>5.330685462067985e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9996138190127772</v>
+        <v>0.9983912461603559</v>
       </c>
       <c r="I50" t="n">
-        <v>2.220409200974953e-14</v>
+        <v>2.179762208653684e-11</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0002860078484335246</v>
+        <v>0.0007309818746202427</v>
       </c>
       <c r="K50" t="n">
-        <v>8.028767374265111e-11</v>
+        <v>1.31758421356051e-09</v>
       </c>
       <c r="L50" t="n">
-        <v>4.549262758923646e-11</v>
+        <v>2.577727943966503e-11</v>
       </c>
       <c r="M50" t="n">
-        <v>2.956459246713851e-07</v>
+        <v>7.117945438343646e-06</v>
       </c>
       <c r="N50" t="n">
-        <v>9.723720374775968e-11</v>
+        <v>1.168145322088346e-08</v>
       </c>
       <c r="O50" t="n">
-        <v>2.220409200974953e-14</v>
+        <v>2.220301792523742e-14</v>
       </c>
       <c r="P50" t="n">
-        <v>2.220409200974953e-14</v>
+        <v>2.220301792523742e-14</v>
       </c>
       <c r="Q50" t="n">
-        <v>4.090903895243476e-08</v>
+        <v>2.368870026155087e-07</v>
       </c>
       <c r="R50" t="n">
-        <v>1.002724940176229e-06</v>
+        <v>1.10884377406359e-05</v>
       </c>
       <c r="S50" t="n">
-        <v>4.100006676999129e-10</v>
+        <v>3.421696491885938e-10</v>
       </c>
       <c r="T50" t="n">
-        <v>4.216276523384968e-06</v>
+        <v>3.440841406885498e-08</v>
       </c>
       <c r="U50" t="n">
-        <v>5.714472591505823e-10</v>
+        <v>4.100408233955387e-10</v>
       </c>
       <c r="V50" t="n">
-        <v>2.220409200974953e-14</v>
+        <v>2.220301792523742e-14</v>
       </c>
       <c r="W50" t="n">
-        <v>2.220409200974953e-14</v>
+        <v>1.162501514999321e-12</v>
       </c>
       <c r="X50" t="n">
-        <v>8.013769762432882e-10</v>
+        <v>1.606076821379053e-07</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.9996138190127772</v>
+        <v>0.9983912461603559</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
@@ -4935,80 +4935,80 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4832.fa</t>
+          <t>even_MAG-GUT57094.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.878637292305792e-11</v>
+        <v>5.420516180876388e-13</v>
       </c>
       <c r="C51" t="n">
-        <v>9.244820411456818e-07</v>
+        <v>1.045536295552889e-07</v>
       </c>
       <c r="D51" t="n">
-        <v>4.001639989137325e-05</v>
+        <v>1.007572825711616e-05</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0007532114025378181</v>
+        <v>3.66148174107897e-05</v>
       </c>
       <c r="F51" t="n">
-        <v>6.456950437652497e-06</v>
+        <v>2.2552899943469e-06</v>
       </c>
       <c r="G51" t="n">
-        <v>4.396490211206212e-07</v>
+        <v>1.492365983341263e-07</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9991820879314732</v>
+        <v>0.999943521813576</v>
       </c>
       <c r="I51" t="n">
-        <v>2.220403631700631e-14</v>
+        <v>2.220441488409795e-14</v>
       </c>
       <c r="J51" t="n">
-        <v>1.323343031635628e-05</v>
+        <v>6.869645404064648e-06</v>
       </c>
       <c r="K51" t="n">
-        <v>4.83377235663633e-11</v>
+        <v>3.853595386380502e-11</v>
       </c>
       <c r="L51" t="n">
-        <v>4.024487377021752e-13</v>
+        <v>2.715060469406892e-13</v>
       </c>
       <c r="M51" t="n">
-        <v>2.209267737719457e-07</v>
+        <v>7.557214745465226e-09</v>
       </c>
       <c r="N51" t="n">
-        <v>3.080293676097715e-10</v>
+        <v>5.089166078618126e-11</v>
       </c>
       <c r="O51" t="n">
-        <v>2.220403631700631e-14</v>
+        <v>2.220441488409795e-14</v>
       </c>
       <c r="P51" t="n">
-        <v>2.220403631700631e-14</v>
+        <v>2.220441488409795e-14</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.509737637790526e-09</v>
+        <v>4.074521522529656e-10</v>
       </c>
       <c r="R51" t="n">
-        <v>3.402898655255883e-06</v>
+        <v>3.997358405488e-07</v>
       </c>
       <c r="S51" t="n">
-        <v>4.303997637952519e-11</v>
+        <v>1.012385612379148e-11</v>
       </c>
       <c r="T51" t="n">
-        <v>2.857861154012253e-09</v>
+        <v>1.018584037141711e-09</v>
       </c>
       <c r="U51" t="n">
-        <v>7.749800056638478e-11</v>
+        <v>4.027354777677796e-11</v>
       </c>
       <c r="V51" t="n">
-        <v>2.220403631700631e-14</v>
+        <v>2.220441488409795e-14</v>
       </c>
       <c r="W51" t="n">
-        <v>2.220403631700631e-14</v>
+        <v>2.220441488409795e-14</v>
       </c>
       <c r="X51" t="n">
-        <v>6.504868170620844e-11</v>
+        <v>5.528884554026511e-11</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.9991820879314732</v>
+        <v>0.999943521813576</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
@@ -5024,80 +5024,80 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50219.fa</t>
+          <t>even_MAG-GUT57682.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.876039433443726e-13</v>
+        <v>1.552974040762552e-13</v>
       </c>
       <c r="C52" t="n">
-        <v>9.60012452389065e-12</v>
+        <v>9.980985251357174e-07</v>
       </c>
       <c r="D52" t="n">
-        <v>6.323385389330768e-07</v>
+        <v>0.0002180381055592232</v>
       </c>
       <c r="E52" t="n">
-        <v>3.897791186216505e-08</v>
+        <v>2.132058800383939e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>3.276931532668215e-06</v>
+        <v>0.0002689796574749483</v>
       </c>
       <c r="G52" t="n">
-        <v>1.045093974828826e-07</v>
+        <v>4.380363499241453e-07</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8024586011225209</v>
+        <v>0.9993065151084055</v>
       </c>
       <c r="I52" t="n">
-        <v>2.219629148758433e-14</v>
+        <v>2.224883758492559e-14</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0005844880179382197</v>
+        <v>3.257812366588352e-07</v>
       </c>
       <c r="K52" t="n">
-        <v>4.752046371443475e-11</v>
+        <v>8.564597144349824e-11</v>
       </c>
       <c r="L52" t="n">
-        <v>1.775659816432368e-12</v>
+        <v>5.791978509952352e-12</v>
       </c>
       <c r="M52" t="n">
-        <v>1.554565247794417e-08</v>
+        <v>6.312568159889457e-10</v>
       </c>
       <c r="N52" t="n">
-        <v>3.391377614504446e-14</v>
+        <v>7.468108175144747e-12</v>
       </c>
       <c r="O52" t="n">
-        <v>2.219629148758433e-14</v>
+        <v>2.224883758492557e-14</v>
       </c>
       <c r="P52" t="n">
-        <v>2.219629148758433e-14</v>
+        <v>2.224883758492557e-14</v>
       </c>
       <c r="Q52" t="n">
-        <v>9.231769806476744e-11</v>
+        <v>1.459460568672128e-11</v>
       </c>
       <c r="R52" t="n">
-        <v>1.087809076350384e-07</v>
+        <v>0.0002025642880525396</v>
       </c>
       <c r="S52" t="n">
-        <v>2.164342619107176e-09</v>
+        <v>1.08159802700256e-10</v>
       </c>
       <c r="T52" t="n">
-        <v>0.1969527314458292</v>
+        <v>7.944369444445362e-09</v>
       </c>
       <c r="U52" t="n">
-        <v>1.15061704337477e-11</v>
+        <v>6.384165141446856e-11</v>
       </c>
       <c r="V52" t="n">
-        <v>2.219629148758433e-14</v>
+        <v>2.224883758492557e-14</v>
       </c>
       <c r="W52" t="n">
-        <v>2.219629148758433e-14</v>
+        <v>2.224883758492557e-14</v>
       </c>
       <c r="X52" t="n">
-        <v>2.375165092098374e-12</v>
+        <v>4.200968959798156e-12</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.8024586011225209</v>
+        <v>0.9993065151084055</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
@@ -5113,169 +5113,169 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54544.fa</t>
+          <t>even_MAG-GUT57684.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6.083797036067429e-10</v>
+        <v>1.765031215612848e-08</v>
       </c>
       <c r="C53" t="n">
-        <v>1.421784435531065e-07</v>
+        <v>5.32108865560362e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>8.022132163091095e-06</v>
+        <v>8.821603688375431e-05</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0006593901094991261</v>
+        <v>2.47986205589031e-09</v>
       </c>
       <c r="F53" t="n">
-        <v>3.608731329007954e-05</v>
+        <v>0.0001577762897864718</v>
       </c>
       <c r="G53" t="n">
-        <v>1.496454692370975e-05</v>
+        <v>0.9921491551736964</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9974341163142674</v>
+        <v>4.298138778184713e-07</v>
       </c>
       <c r="I53" t="n">
-        <v>1.770047269257449e-11</v>
+        <v>1.488138944156933e-05</v>
       </c>
       <c r="J53" t="n">
-        <v>9.013159389424978e-06</v>
+        <v>1.040275973580758e-05</v>
       </c>
       <c r="K53" t="n">
-        <v>3.464405257653591e-10</v>
+        <v>3.542935654945122e-05</v>
       </c>
       <c r="L53" t="n">
-        <v>2.125568361366833e-12</v>
+        <v>0.001041223843420737</v>
       </c>
       <c r="M53" t="n">
-        <v>4.108384385042767e-06</v>
+        <v>0.0001179069839822046</v>
       </c>
       <c r="N53" t="n">
-        <v>2.095921369177541e-09</v>
+        <v>0.004554135203862332</v>
       </c>
       <c r="O53" t="n">
-        <v>2.220203183416536e-14</v>
+        <v>2.220218366304278e-14</v>
       </c>
       <c r="P53" t="n">
-        <v>2.220203183416536e-14</v>
+        <v>7.428356416169227e-13</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.491391453219395e-08</v>
+        <v>0.0001955758850109308</v>
       </c>
       <c r="R53" t="n">
-        <v>0.001834125095711139</v>
+        <v>2.561174643500827e-06</v>
       </c>
       <c r="S53" t="n">
-        <v>6.787193340165647e-09</v>
+        <v>2.463284527320276e-09</v>
       </c>
       <c r="T53" t="n">
-        <v>2.937160553977462e-09</v>
+        <v>2.220218366304278e-14</v>
       </c>
       <c r="U53" t="n">
-        <v>5.904871028424571e-12</v>
+        <v>7.887341099832455e-06</v>
       </c>
       <c r="V53" t="n">
-        <v>2.220203183416536e-14</v>
+        <v>7.93017387985952e-09</v>
       </c>
       <c r="W53" t="n">
-        <v>2.220203183416536e-14</v>
+        <v>7.051554285846549e-11</v>
       </c>
       <c r="X53" t="n">
-        <v>3.051097803458419e-09</v>
+        <v>0.001619067064418182</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.9974341163142674</v>
+        <v>0.9921491551736964</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56361.fa</t>
+          <t>even_MAG-GUT57904.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6.432370503106826e-05</v>
+        <v>1.503585578005842e-10</v>
       </c>
       <c r="C54" t="n">
-        <v>0.001396388388766193</v>
+        <v>2.335493573765279e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01311743439356952</v>
+        <v>0.0001779913350278961</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004964396378058278</v>
+        <v>4.770282136715673e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0002548353313812934</v>
+        <v>2.026935797844075e-06</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0003082410567438027</v>
+        <v>4.032907511167683e-07</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9779774901680178</v>
+        <v>0.9996990452960809</v>
       </c>
       <c r="I54" t="n">
-        <v>1.425246494760024e-05</v>
+        <v>2.220440687535492e-14</v>
       </c>
       <c r="J54" t="n">
-        <v>1.424241768659207e-05</v>
+        <v>6.883924864041039e-05</v>
       </c>
       <c r="K54" t="n">
-        <v>6.631068836885505e-07</v>
+        <v>2.091909687061476e-10</v>
       </c>
       <c r="L54" t="n">
-        <v>1.987528235771301e-07</v>
+        <v>4.585520110453646e-12</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0003168058363431237</v>
+        <v>4.021508092739532e-07</v>
       </c>
       <c r="N54" t="n">
-        <v>4.267184118928453e-07</v>
+        <v>5.20108000123741e-10</v>
       </c>
       <c r="O54" t="n">
-        <v>5.524153032701443e-14</v>
+        <v>2.220440687535492e-14</v>
       </c>
       <c r="P54" t="n">
-        <v>2.436054176605354e-10</v>
+        <v>2.220440687535492e-14</v>
       </c>
       <c r="Q54" t="n">
-        <v>3.670555684430079e-06</v>
+        <v>1.501131842192042e-08</v>
       </c>
       <c r="R54" t="n">
-        <v>0.001080809706306536</v>
+        <v>1.181233763487114e-06</v>
       </c>
       <c r="S54" t="n">
-        <v>1.977068890370593e-06</v>
+        <v>1.962296247212773e-11</v>
       </c>
       <c r="T54" t="n">
-        <v>0.0004791243765045788</v>
+        <v>5.488414889588586e-08</v>
       </c>
       <c r="U54" t="n">
-        <v>8.789999974406461e-09</v>
+        <v>1.934551496595158e-11</v>
       </c>
       <c r="V54" t="n">
-        <v>5.52415303270143e-14</v>
+        <v>2.220440687535492e-14</v>
       </c>
       <c r="W54" t="n">
-        <v>4.099745223182695e-08</v>
+        <v>2.220440687535492e-14</v>
       </c>
       <c r="X54" t="n">
-        <v>4.669542781356814e-06</v>
+        <v>1.375398287766503e-09</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.9779774901680178</v>
+        <v>0.9996990452960809</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
@@ -5291,169 +5291,169 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56645.fa</t>
+          <t>even_MAG-GUT58156.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.001374636677197265</v>
+        <v>7.68957606137586e-14</v>
       </c>
       <c r="C55" t="n">
-        <v>0.02599208314855805</v>
+        <v>9.367935238591879e-09</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8357437707124683</v>
+        <v>5.564904396252915e-06</v>
       </c>
       <c r="E55" t="n">
-        <v>0.11843942677269</v>
+        <v>4.74101876102487e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>4.681901367328719e-05</v>
+        <v>0.0007104027330934892</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008299267777143262</v>
+        <v>7.464934767326401e-07</v>
       </c>
       <c r="H55" t="n">
-        <v>0.004429457381453819</v>
+        <v>0.9992284686706165</v>
       </c>
       <c r="I55" t="n">
-        <v>0.00062676529926006</v>
+        <v>2.220387092153065e-14</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0001997072253336829</v>
+        <v>3.320756875550549e-06</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0001471226792853964</v>
+        <v>2.972166348787854e-11</v>
       </c>
       <c r="L55" t="n">
-        <v>3.843957368565274e-10</v>
+        <v>2.873502157036476e-13</v>
       </c>
       <c r="M55" t="n">
-        <v>0.00161179387410861</v>
+        <v>2.98548052143056e-08</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0002981048064289673</v>
+        <v>5.373488202090952e-11</v>
       </c>
       <c r="O55" t="n">
-        <v>1.759418108338152e-13</v>
+        <v>2.220387092153065e-14</v>
       </c>
       <c r="P55" t="n">
-        <v>1.092715344794571e-11</v>
+        <v>2.220387092153065e-14</v>
       </c>
       <c r="Q55" t="n">
-        <v>7.005020606462131e-06</v>
+        <v>5.020730783703591e-10</v>
       </c>
       <c r="R55" t="n">
-        <v>0.002778508818433592</v>
+        <v>1.029583010549504e-06</v>
       </c>
       <c r="S55" t="n">
-        <v>3.172170910850406e-07</v>
+        <v>9.073969035363148e-10</v>
       </c>
       <c r="T55" t="n">
-        <v>1.079931324009783e-09</v>
+        <v>3.01572990208584e-06</v>
       </c>
       <c r="U55" t="n">
-        <v>1.048132807383897e-09</v>
+        <v>9.763173332198806e-11</v>
       </c>
       <c r="V55" t="n">
-        <v>1.759418108338226e-13</v>
+        <v>2.220387092153065e-14</v>
       </c>
       <c r="W55" t="n">
-        <v>2.23168521902005e-06</v>
+        <v>2.220387092153065e-14</v>
       </c>
       <c r="X55" t="n">
-        <v>2.979367310193363e-06</v>
+        <v>1.272445109413892e-10</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.8357437707124683</v>
+        <v>0.9992284686706165</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>g__CAG-110</t>
+          <t>g__ER4</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>g__CAG-110</t>
+          <t>g__ER4</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56948.fa</t>
+          <t>even_MAG-GUT58768.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.932144801265565e-08</v>
+        <v>7.886413199356622e-09</v>
       </c>
       <c r="C56" t="n">
-        <v>4.765428460067944e-06</v>
+        <v>3.525938296571388e-07</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0001868683566369017</v>
+        <v>0.0001948657746671097</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0006615901158447592</v>
+        <v>0.0004898699525700934</v>
       </c>
       <c r="F56" t="n">
-        <v>5.459708426335536e-07</v>
+        <v>5.779552275153884e-06</v>
       </c>
       <c r="G56" t="n">
-        <v>5.330685462067985e-06</v>
+        <v>2.045193988553283e-05</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9983912461603559</v>
+        <v>0.9991306873069543</v>
       </c>
       <c r="I56" t="n">
-        <v>2.179762208653684e-11</v>
+        <v>1.236186278679159e-11</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0007309818746202427</v>
+        <v>7.995097452652262e-05</v>
       </c>
       <c r="K56" t="n">
-        <v>1.31758421356051e-09</v>
+        <v>6.121075023692268e-10</v>
       </c>
       <c r="L56" t="n">
-        <v>2.577727943966503e-11</v>
+        <v>1.308603448398108e-12</v>
       </c>
       <c r="M56" t="n">
-        <v>7.117945438343646e-06</v>
+        <v>9.853187960473793e-06</v>
       </c>
       <c r="N56" t="n">
-        <v>1.168145322088346e-08</v>
+        <v>8.463809418125378e-09</v>
       </c>
       <c r="O56" t="n">
-        <v>2.220301792523742e-14</v>
+        <v>2.22130769418552e-14</v>
       </c>
       <c r="P56" t="n">
-        <v>2.220301792523742e-14</v>
+        <v>2.22130769418552e-14</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.368870026155087e-07</v>
+        <v>3.07536447417366e-08</v>
       </c>
       <c r="R56" t="n">
-        <v>1.10884377406359e-05</v>
+        <v>6.813843455294326e-05</v>
       </c>
       <c r="S56" t="n">
-        <v>3.421696491885938e-10</v>
+        <v>9.617169597589151e-10</v>
       </c>
       <c r="T56" t="n">
-        <v>3.440841406885498e-08</v>
+        <v>8.588011812729006e-10</v>
       </c>
       <c r="U56" t="n">
-        <v>4.100408233955387e-10</v>
+        <v>6.402742658158072e-11</v>
       </c>
       <c r="V56" t="n">
-        <v>2.220301792523742e-14</v>
+        <v>2.22130769418552e-14</v>
       </c>
       <c r="W56" t="n">
-        <v>1.162501514999321e-12</v>
+        <v>8.444910888145624e-14</v>
       </c>
       <c r="X56" t="n">
-        <v>1.606076821379053e-07</v>
+        <v>6.684361164910177e-10</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.9983912461603559</v>
+        <v>0.9991306873069543</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
@@ -5469,80 +5469,80 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57094.fa</t>
+          <t>even_MAG-GUT59114.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5.420516180876388e-13</v>
+        <v>2.09876786408979e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>1.045536295552889e-07</v>
+        <v>0.0004066165559467063</v>
       </c>
       <c r="D57" t="n">
-        <v>1.007572825711616e-05</v>
+        <v>0.008440251457653529</v>
       </c>
       <c r="E57" t="n">
-        <v>3.66148174107897e-05</v>
+        <v>0.0009388037976849838</v>
       </c>
       <c r="F57" t="n">
-        <v>2.2552899943469e-06</v>
+        <v>0.0003156593668342812</v>
       </c>
       <c r="G57" t="n">
-        <v>1.492365983341263e-07</v>
+        <v>0.0003974116412435903</v>
       </c>
       <c r="H57" t="n">
-        <v>0.999943521813576</v>
+        <v>0.9887579099436865</v>
       </c>
       <c r="I57" t="n">
-        <v>2.220441488409795e-14</v>
+        <v>2.461190011942826e-07</v>
       </c>
       <c r="J57" t="n">
-        <v>6.869645404064648e-06</v>
+        <v>3.079578822752586e-05</v>
       </c>
       <c r="K57" t="n">
-        <v>3.853595386380502e-11</v>
+        <v>6.09085060033161e-08</v>
       </c>
       <c r="L57" t="n">
-        <v>2.715060469406892e-13</v>
+        <v>5.258507623055026e-09</v>
       </c>
       <c r="M57" t="n">
-        <v>7.557214745465226e-09</v>
+        <v>0.0006005536390612155</v>
       </c>
       <c r="N57" t="n">
-        <v>5.089166078618126e-11</v>
+        <v>9.61307449570863e-07</v>
       </c>
       <c r="O57" t="n">
-        <v>2.220441488409795e-14</v>
+        <v>2.220190223370639e-14</v>
       </c>
       <c r="P57" t="n">
-        <v>2.220441488409795e-14</v>
+        <v>3.040239526768413e-12</v>
       </c>
       <c r="Q57" t="n">
-        <v>4.074521522529656e-10</v>
+        <v>3.339276990139385e-06</v>
       </c>
       <c r="R57" t="n">
-        <v>3.997358405488e-07</v>
+        <v>8.387802838411235e-05</v>
       </c>
       <c r="S57" t="n">
-        <v>1.012385612379148e-11</v>
+        <v>1.896478642618475e-06</v>
       </c>
       <c r="T57" t="n">
-        <v>1.018584037141711e-09</v>
+        <v>4.90094258558626e-07</v>
       </c>
       <c r="U57" t="n">
-        <v>4.027354777677796e-11</v>
+        <v>2.026738229011766e-09</v>
       </c>
       <c r="V57" t="n">
-        <v>2.220441488409795e-14</v>
+        <v>2.220190223370639e-14</v>
       </c>
       <c r="W57" t="n">
-        <v>2.220441488409795e-14</v>
+        <v>1.776996382114939e-09</v>
       </c>
       <c r="X57" t="n">
-        <v>5.528884554026511e-11</v>
+        <v>1.28852461711739e-07</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.999943521813576</v>
+        <v>0.9887579099436865</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
@@ -5558,80 +5558,80 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57682.fa</t>
+          <t>even_MAG-GUT59205.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.552974040762552e-13</v>
+        <v>6.549893282142075e-10</v>
       </c>
       <c r="C58" t="n">
-        <v>9.980985251357174e-07</v>
+        <v>5.132770800768437e-07</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0002180381055592232</v>
+        <v>0.0002540509662690395</v>
       </c>
       <c r="E58" t="n">
-        <v>2.132058800383939e-06</v>
+        <v>0.0002369055215217564</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0002689796574749483</v>
+        <v>1.984945410407153e-06</v>
       </c>
       <c r="G58" t="n">
-        <v>4.380363499241453e-07</v>
+        <v>2.742622702697432e-06</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9993065151084055</v>
+        <v>0.9994025843792389</v>
       </c>
       <c r="I58" t="n">
-        <v>2.224883758492559e-14</v>
+        <v>7.008915105456367e-13</v>
       </c>
       <c r="J58" t="n">
-        <v>3.257812366588352e-07</v>
+        <v>8.209172563956822e-05</v>
       </c>
       <c r="K58" t="n">
-        <v>8.564597144349824e-11</v>
+        <v>2.618957182474766e-10</v>
       </c>
       <c r="L58" t="n">
-        <v>5.791978509952352e-12</v>
+        <v>1.568424030909403e-12</v>
       </c>
       <c r="M58" t="n">
-        <v>6.312568159889457e-10</v>
+        <v>6.974552717289298e-07</v>
       </c>
       <c r="N58" t="n">
-        <v>7.468108175144747e-12</v>
+        <v>2.169698813278974e-09</v>
       </c>
       <c r="O58" t="n">
-        <v>2.224883758492557e-14</v>
+        <v>2.220418312975983e-14</v>
       </c>
       <c r="P58" t="n">
-        <v>2.224883758492557e-14</v>
+        <v>2.220418312975983e-14</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.459460568672128e-11</v>
+        <v>1.248313264046071e-08</v>
       </c>
       <c r="R58" t="n">
-        <v>0.0002025642880525396</v>
+        <v>1.841069864694688e-05</v>
       </c>
       <c r="S58" t="n">
-        <v>1.08159802700256e-10</v>
+        <v>1.325319796923216e-11</v>
       </c>
       <c r="T58" t="n">
-        <v>7.944369444445362e-09</v>
+        <v>1.201835763225265e-09</v>
       </c>
       <c r="U58" t="n">
-        <v>6.384165141446856e-11</v>
+        <v>2.626212759628835e-11</v>
       </c>
       <c r="V58" t="n">
-        <v>2.224883758492557e-14</v>
+        <v>2.220418312975983e-14</v>
       </c>
       <c r="W58" t="n">
-        <v>2.224883758492557e-14</v>
+        <v>2.220418312975983e-14</v>
       </c>
       <c r="X58" t="n">
-        <v>4.200968959798156e-12</v>
+        <v>1.594793032238551e-09</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.9993065151084055</v>
+        <v>0.9994025843792389</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
@@ -5647,169 +5647,169 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57684.fa</t>
+          <t>even_MAG-GUT6856.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.765031215612848e-08</v>
+        <v>1.310123925621084e-06</v>
       </c>
       <c r="C59" t="n">
-        <v>5.32108865560362e-06</v>
+        <v>8.220984715285784e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>8.821603688375431e-05</v>
+        <v>0.0001404779275663927</v>
       </c>
       <c r="E59" t="n">
-        <v>2.47986205589031e-09</v>
+        <v>0.001040034836378202</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0001577762897864718</v>
+        <v>0.002419216898350689</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9921491551736964</v>
+        <v>5.065895391011672e-05</v>
       </c>
       <c r="H59" t="n">
-        <v>4.298138778184713e-07</v>
+        <v>0.9953803298447496</v>
       </c>
       <c r="I59" t="n">
-        <v>1.488138944156933e-05</v>
+        <v>9.999347855009239e-07</v>
       </c>
       <c r="J59" t="n">
-        <v>1.040275973580758e-05</v>
+        <v>6.164136360423208e-05</v>
       </c>
       <c r="K59" t="n">
-        <v>3.542935654945122e-05</v>
+        <v>4.102294378332282e-08</v>
       </c>
       <c r="L59" t="n">
-        <v>0.001041223843420737</v>
+        <v>1.077948789517829e-08</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0001179069839822046</v>
+        <v>1.553125158072236e-05</v>
       </c>
       <c r="N59" t="n">
-        <v>0.004554135203862332</v>
+        <v>8.608647944745189e-09</v>
       </c>
       <c r="O59" t="n">
-        <v>2.220218366304278e-14</v>
+        <v>2.220165200849844e-14</v>
       </c>
       <c r="P59" t="n">
-        <v>7.428356416169227e-13</v>
+        <v>4.183273761687413e-12</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.0001955758850109308</v>
+        <v>1.694784625489574e-07</v>
       </c>
       <c r="R59" t="n">
-        <v>2.561174643500827e-06</v>
+        <v>8.594606532059516e-05</v>
       </c>
       <c r="S59" t="n">
-        <v>2.463284527320276e-09</v>
+        <v>0.0007191893500328483</v>
       </c>
       <c r="T59" t="n">
-        <v>2.220218366304278e-14</v>
+        <v>3.449355409810206e-08</v>
       </c>
       <c r="U59" t="n">
-        <v>7.887341099832455e-06</v>
+        <v>2.632336650816861e-10</v>
       </c>
       <c r="V59" t="n">
-        <v>7.93017387985952e-09</v>
+        <v>2.220165200849844e-14</v>
       </c>
       <c r="W59" t="n">
-        <v>7.051554285846549e-11</v>
+        <v>1.120616377386565e-09</v>
       </c>
       <c r="X59" t="n">
-        <v>0.001619067064418182</v>
+        <v>2.18783146883085e-06</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.9921491551736964</v>
+        <v>0.9953803298447496</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>g__Dysosmobacter</t>
+          <t>g__ER4</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>g__Dysosmobacter</t>
+          <t>g__ER4</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57904.fa</t>
+          <t>even_MAG-GUT79219.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.503585578005842e-10</v>
+        <v>9.077684462049481e-10</v>
       </c>
       <c r="C60" t="n">
-        <v>2.335493573765279e-06</v>
+        <v>9.422962113873151e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0001779913350278961</v>
+        <v>0.0006832923571741924</v>
       </c>
       <c r="E60" t="n">
-        <v>4.770282136715673e-05</v>
+        <v>0.001065376797388243</v>
       </c>
       <c r="F60" t="n">
-        <v>2.026935797844075e-06</v>
+        <v>7.950328191768013e-05</v>
       </c>
       <c r="G60" t="n">
-        <v>4.032907511167683e-07</v>
+        <v>5.681342955834511e-06</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9996990452960809</v>
+        <v>0.9980206397813404</v>
       </c>
       <c r="I60" t="n">
-        <v>2.220440687535492e-14</v>
+        <v>5.67071215535757e-10</v>
       </c>
       <c r="J60" t="n">
-        <v>6.883924864041039e-05</v>
+        <v>4.137913060067959e-05</v>
       </c>
       <c r="K60" t="n">
-        <v>2.091909687061476e-10</v>
+        <v>1.755524721176186e-09</v>
       </c>
       <c r="L60" t="n">
-        <v>4.585520110453646e-12</v>
+        <v>7.226985214249487e-12</v>
       </c>
       <c r="M60" t="n">
-        <v>4.021508092739532e-07</v>
+        <v>5.750384769820982e-07</v>
       </c>
       <c r="N60" t="n">
-        <v>5.20108000123741e-10</v>
+        <v>1.164510386926611e-09</v>
       </c>
       <c r="O60" t="n">
-        <v>2.220440687535492e-14</v>
+        <v>2.221303868459147e-14</v>
       </c>
       <c r="P60" t="n">
-        <v>2.220440687535492e-14</v>
+        <v>2.221303868459148e-14</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.501131842192042e-08</v>
+        <v>1.644541225988214e-08</v>
       </c>
       <c r="R60" t="n">
-        <v>1.181233763487114e-06</v>
+        <v>6.567522263940586e-07</v>
       </c>
       <c r="S60" t="n">
-        <v>1.962296247212773e-11</v>
+        <v>6.279636452323185e-06</v>
       </c>
       <c r="T60" t="n">
-        <v>5.488414889588586e-08</v>
+        <v>2.254384475872956e-06</v>
       </c>
       <c r="U60" t="n">
-        <v>1.934551496595158e-11</v>
+        <v>1.303175902953161e-10</v>
       </c>
       <c r="V60" t="n">
-        <v>2.220440687535492e-14</v>
+        <v>2.221303868459147e-14</v>
       </c>
       <c r="W60" t="n">
-        <v>2.220440687535492e-14</v>
+        <v>2.509880489830807e-12</v>
       </c>
       <c r="X60" t="n">
-        <v>1.375398287766503e-09</v>
+        <v>1.108954445419406e-07</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.9996990452960809</v>
+        <v>0.9980206397813404</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
@@ -5825,347 +5825,347 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58156.fa</t>
+          <t>even_MAG-GUT80567.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>7.68957606137586e-14</v>
+        <v>0.001160808676581995</v>
       </c>
       <c r="C61" t="n">
-        <v>9.367935238591879e-09</v>
+        <v>0.005830783785152132</v>
       </c>
       <c r="D61" t="n">
-        <v>5.564904396252915e-06</v>
+        <v>0.7614617957085625</v>
       </c>
       <c r="E61" t="n">
-        <v>4.74101876102487e-05</v>
+        <v>0.2290200259539835</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0007104027330934892</v>
+        <v>0.0001902194104782397</v>
       </c>
       <c r="G61" t="n">
-        <v>7.464934767326401e-07</v>
+        <v>0.0007846845031045278</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9992284686706165</v>
+        <v>0.0002146679669861095</v>
       </c>
       <c r="I61" t="n">
-        <v>2.220387092153065e-14</v>
+        <v>0.0002507217543107265</v>
       </c>
       <c r="J61" t="n">
-        <v>3.320756875550549e-06</v>
+        <v>6.543419187899962e-05</v>
       </c>
       <c r="K61" t="n">
-        <v>2.972166348787854e-11</v>
+        <v>0.0001493016098929151</v>
       </c>
       <c r="L61" t="n">
-        <v>2.873502157036476e-13</v>
+        <v>5.49581033519971e-10</v>
       </c>
       <c r="M61" t="n">
-        <v>2.98548052143056e-08</v>
+        <v>0.0002252424664170271</v>
       </c>
       <c r="N61" t="n">
-        <v>5.373488202090952e-11</v>
+        <v>0.000558770465066615</v>
       </c>
       <c r="O61" t="n">
-        <v>2.220387092153065e-14</v>
+        <v>2.2204374479856e-14</v>
       </c>
       <c r="P61" t="n">
-        <v>2.220387092153065e-14</v>
+        <v>2.601937564840811e-09</v>
       </c>
       <c r="Q61" t="n">
-        <v>5.020730783703591e-10</v>
+        <v>1.641398704543091e-06</v>
       </c>
       <c r="R61" t="n">
-        <v>1.029583010549504e-06</v>
+        <v>2.448261801446461e-06</v>
       </c>
       <c r="S61" t="n">
-        <v>9.073969035363148e-10</v>
+        <v>7.595637698422723e-05</v>
       </c>
       <c r="T61" t="n">
-        <v>3.01572990208584e-06</v>
+        <v>4.54373986072239e-10</v>
       </c>
       <c r="U61" t="n">
-        <v>9.763173332198806e-11</v>
+        <v>2.23162056032869e-08</v>
       </c>
       <c r="V61" t="n">
-        <v>2.220387092153065e-14</v>
+        <v>2.2204374479856e-14</v>
       </c>
       <c r="W61" t="n">
-        <v>2.220387092153065e-14</v>
+        <v>7.398318305423509e-06</v>
       </c>
       <c r="X61" t="n">
-        <v>1.272445109413892e-10</v>
+        <v>7.322964645392309e-08</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.9992284686706165</v>
+        <v>0.7614617957085625</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__CAG-110</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__CAG-110</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58768.fa</t>
+          <t>even_MAG-GUT85926.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>7.886413199356622e-09</v>
+        <v>1.402058550660752e-10</v>
       </c>
       <c r="C62" t="n">
-        <v>3.525938296571388e-07</v>
+        <v>5.83085944662483e-09</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0001948657746671097</v>
+        <v>0.9780607962979707</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0004898699525700934</v>
+        <v>3.81571524340459e-07</v>
       </c>
       <c r="F62" t="n">
-        <v>5.779552275153884e-06</v>
+        <v>0.004903816879209716</v>
       </c>
       <c r="G62" t="n">
-        <v>2.045193988553283e-05</v>
+        <v>0.01230613716406617</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9991306873069543</v>
+        <v>2.911047283110963e-05</v>
       </c>
       <c r="I62" t="n">
-        <v>1.236186278679159e-11</v>
+        <v>1.287733514252556e-11</v>
       </c>
       <c r="J62" t="n">
-        <v>7.995097452652262e-05</v>
+        <v>7.275620476619049e-07</v>
       </c>
       <c r="K62" t="n">
-        <v>6.121075023692268e-10</v>
+        <v>4.583722716877555e-05</v>
       </c>
       <c r="L62" t="n">
-        <v>1.308603448398108e-12</v>
+        <v>2.367599192784649e-06</v>
       </c>
       <c r="M62" t="n">
-        <v>9.853187960473793e-06</v>
+        <v>0.0003520205305377147</v>
       </c>
       <c r="N62" t="n">
-        <v>8.463809418125378e-09</v>
+        <v>0.0001943065018865586</v>
       </c>
       <c r="O62" t="n">
-        <v>2.22130769418552e-14</v>
+        <v>3.720626139398867e-10</v>
       </c>
       <c r="P62" t="n">
-        <v>2.22130769418552e-14</v>
+        <v>1.993450577344482e-13</v>
       </c>
       <c r="Q62" t="n">
-        <v>3.07536447417366e-08</v>
+        <v>0.002522664893319355</v>
       </c>
       <c r="R62" t="n">
-        <v>6.813843455294326e-05</v>
+        <v>4.647261210420699e-05</v>
       </c>
       <c r="S62" t="n">
-        <v>9.617169597589151e-10</v>
+        <v>5.657152290280404e-09</v>
       </c>
       <c r="T62" t="n">
-        <v>8.588011812729006e-10</v>
+        <v>1.392530034075816e-12</v>
       </c>
       <c r="U62" t="n">
-        <v>6.402742658158072e-11</v>
+        <v>5.266415368750097e-05</v>
       </c>
       <c r="V62" t="n">
-        <v>2.22130769418552e-14</v>
+        <v>2.664013070688199e-06</v>
       </c>
       <c r="W62" t="n">
-        <v>8.444910888145624e-14</v>
+        <v>5.352590061960646e-09</v>
       </c>
       <c r="X62" t="n">
-        <v>6.684361164910177e-10</v>
+        <v>0.001480015154043203</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.9991306873069543</v>
+        <v>0.9780607962979707</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__CAG-110</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__CAG-110</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59114.fa</t>
+          <t>even_MAG-GUT8612.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.09876786408979e-05</v>
+        <v>5.895578897804598e-08</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0004066165559467063</v>
+        <v>2.139389628295329e-07</v>
       </c>
       <c r="D63" t="n">
-        <v>0.008440251457653529</v>
+        <v>1.135104179714808e-05</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0009388037976849838</v>
+        <v>2.109810206007256e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0003156593668342812</v>
+        <v>0.002748766326230686</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0003974116412435903</v>
+        <v>0.9941562836787528</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9887579099436865</v>
+        <v>7.853653253684264e-07</v>
       </c>
       <c r="I63" t="n">
-        <v>2.461190011942826e-07</v>
+        <v>4.083855323308689e-06</v>
       </c>
       <c r="J63" t="n">
-        <v>3.079578822752586e-05</v>
+        <v>2.759780120348614e-06</v>
       </c>
       <c r="K63" t="n">
-        <v>6.09085060033161e-08</v>
+        <v>1.06838444143534e-05</v>
       </c>
       <c r="L63" t="n">
-        <v>5.258507623055026e-09</v>
+        <v>0.0007418379512814831</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0006005536390612155</v>
+        <v>0.001115913436509187</v>
       </c>
       <c r="N63" t="n">
-        <v>9.61307449570863e-07</v>
+        <v>0.0009156270577682072</v>
       </c>
       <c r="O63" t="n">
-        <v>2.220190223370639e-14</v>
+        <v>2.220207988012829e-14</v>
       </c>
       <c r="P63" t="n">
-        <v>3.040239526768413e-12</v>
+        <v>5.7828022253361e-08</v>
       </c>
       <c r="Q63" t="n">
-        <v>3.339276990139385e-06</v>
+        <v>7.788103805882344e-05</v>
       </c>
       <c r="R63" t="n">
-        <v>8.387802838411235e-05</v>
+        <v>2.077128572476857e-06</v>
       </c>
       <c r="S63" t="n">
-        <v>1.896478642618475e-06</v>
+        <v>1.011012492757694e-06</v>
       </c>
       <c r="T63" t="n">
-        <v>4.90094258558626e-07</v>
+        <v>2.322590971822801e-12</v>
       </c>
       <c r="U63" t="n">
-        <v>2.026738229011766e-09</v>
+        <v>2.185307096802241e-06</v>
       </c>
       <c r="V63" t="n">
-        <v>2.220190223370639e-14</v>
+        <v>9.318838929597803e-10</v>
       </c>
       <c r="W63" t="n">
-        <v>1.776996382114939e-09</v>
+        <v>7.657003663341779e-06</v>
       </c>
       <c r="X63" t="n">
-        <v>1.28852461711739e-07</v>
+        <v>0.000198654705384029</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.9887579099436865</v>
+        <v>0.9941562836787528</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59205.fa</t>
+          <t>even_MAG-GUT8640.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>6.549893282142075e-10</v>
+        <v>1.385513922914056e-06</v>
       </c>
       <c r="C64" t="n">
-        <v>5.132770800768437e-07</v>
+        <v>1.326756146039834e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0002540509662690395</v>
+        <v>0.0005549024220636693</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0002369055215217564</v>
+        <v>0.00468542303389</v>
       </c>
       <c r="F64" t="n">
-        <v>1.984945410407153e-06</v>
+        <v>0.0007142122094412765</v>
       </c>
       <c r="G64" t="n">
-        <v>2.742622702697432e-06</v>
+        <v>0.0002566752980431777</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9994025843792389</v>
+        <v>0.9883050998241026</v>
       </c>
       <c r="I64" t="n">
-        <v>7.008915105456367e-13</v>
+        <v>8.598086119755028e-07</v>
       </c>
       <c r="J64" t="n">
-        <v>8.209172563956822e-05</v>
+        <v>4.796174046184211e-06</v>
       </c>
       <c r="K64" t="n">
-        <v>2.618957182474766e-10</v>
+        <v>7.026522303496801e-08</v>
       </c>
       <c r="L64" t="n">
-        <v>1.568424030909403e-12</v>
+        <v>3.117633540028349e-11</v>
       </c>
       <c r="M64" t="n">
-        <v>6.974552717289298e-07</v>
+        <v>0.0001308305019900749</v>
       </c>
       <c r="N64" t="n">
-        <v>2.169698813278974e-09</v>
+        <v>1.832435411045267e-08</v>
       </c>
       <c r="O64" t="n">
-        <v>2.220418312975983e-14</v>
+        <v>2.220225907990707e-14</v>
       </c>
       <c r="P64" t="n">
-        <v>2.220418312975983e-14</v>
+        <v>5.199755202640675e-13</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.248313264046071e-08</v>
+        <v>6.505539174603654e-08</v>
       </c>
       <c r="R64" t="n">
-        <v>1.841069864694688e-05</v>
+        <v>0.005311655571923838</v>
       </c>
       <c r="S64" t="n">
-        <v>1.325319796923216e-11</v>
+        <v>2.048276591763065e-05</v>
       </c>
       <c r="T64" t="n">
-        <v>1.201835763225265e-09</v>
+        <v>4.439989922319975e-09</v>
       </c>
       <c r="U64" t="n">
-        <v>2.626212759628835e-11</v>
+        <v>2.727487609254458e-11</v>
       </c>
       <c r="V64" t="n">
-        <v>2.220418312975983e-14</v>
+        <v>2.220225907990707e-14</v>
       </c>
       <c r="W64" t="n">
-        <v>2.220418312975983e-14</v>
+        <v>3.774293093990383e-10</v>
       </c>
       <c r="X64" t="n">
-        <v>1.594793032238551e-09</v>
+        <v>2.507931825693175e-07</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.9994025843792389</v>
+        <v>0.9883050998241026</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
@@ -6181,80 +6181,80 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6856.fa</t>
+          <t>even_MAG-GUT8940.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.310123925621084e-06</v>
+        <v>4.164024278482858e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>8.220984715285784e-05</v>
+        <v>0.003445611824251402</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0001404779275663927</v>
+        <v>0.002913372587847777</v>
       </c>
       <c r="E65" t="n">
-        <v>0.001040034836378202</v>
+        <v>0.0006467004840475247</v>
       </c>
       <c r="F65" t="n">
-        <v>0.002419216898350689</v>
+        <v>0.0002106522569694045</v>
       </c>
       <c r="G65" t="n">
-        <v>5.065895391011672e-05</v>
+        <v>0.0006062667290271801</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9953803298447496</v>
+        <v>0.9874928609251811</v>
       </c>
       <c r="I65" t="n">
-        <v>9.999347855009239e-07</v>
+        <v>1.483885153601047e-06</v>
       </c>
       <c r="J65" t="n">
-        <v>6.164136360423208e-05</v>
+        <v>1.381197941578374e-05</v>
       </c>
       <c r="K65" t="n">
-        <v>4.102294378332282e-08</v>
+        <v>9.139013956642171e-08</v>
       </c>
       <c r="L65" t="n">
-        <v>1.077948789517829e-08</v>
+        <v>4.048968137233655e-09</v>
       </c>
       <c r="M65" t="n">
-        <v>1.553125158072236e-05</v>
+        <v>0.000253822196357137</v>
       </c>
       <c r="N65" t="n">
-        <v>8.608647944745189e-09</v>
+        <v>9.238762736608809e-08</v>
       </c>
       <c r="O65" t="n">
-        <v>2.220165200849844e-14</v>
+        <v>3.031729977343515e-14</v>
       </c>
       <c r="P65" t="n">
-        <v>4.183273761687413e-12</v>
+        <v>4.040152948295392e-12</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.694784625489574e-07</v>
+        <v>2.161508521456767e-06</v>
       </c>
       <c r="R65" t="n">
-        <v>8.594606532059516e-05</v>
+        <v>0.004363101231041563</v>
       </c>
       <c r="S65" t="n">
-        <v>0.0007191893500328483</v>
+        <v>8.936548881647444e-07</v>
       </c>
       <c r="T65" t="n">
-        <v>3.449355409810206e-08</v>
+        <v>1.522092031050929e-06</v>
       </c>
       <c r="U65" t="n">
-        <v>2.632336650816861e-10</v>
+        <v>6.858296635039393e-10</v>
       </c>
       <c r="V65" t="n">
-        <v>2.220165200849844e-14</v>
+        <v>3.031729977343522e-14</v>
       </c>
       <c r="W65" t="n">
-        <v>1.120616377386565e-09</v>
+        <v>3.666907717179614e-09</v>
       </c>
       <c r="X65" t="n">
-        <v>2.18783146883085e-06</v>
+        <v>5.90621890875733e-06</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.9953803298447496</v>
+        <v>0.9874928609251811</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
@@ -6270,169 +6270,169 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79219.fa</t>
+          <t>even_MAG-GUT9113.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9.077684462049481e-10</v>
+        <v>1.229587047312894e-08</v>
       </c>
       <c r="C66" t="n">
-        <v>9.422962113873151e-05</v>
+        <v>5.935040157005904e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0006832923571741924</v>
+        <v>9.31201308807508e-07</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001065376797388243</v>
+        <v>4.073228128286522e-10</v>
       </c>
       <c r="F66" t="n">
-        <v>7.950328191768013e-05</v>
+        <v>1.139938083951519e-05</v>
       </c>
       <c r="G66" t="n">
-        <v>5.681342955834511e-06</v>
+        <v>0.9867348280668509</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9980206397813404</v>
+        <v>3.643722244959765e-07</v>
       </c>
       <c r="I66" t="n">
-        <v>5.67071215535757e-10</v>
+        <v>5.452426848817234e-06</v>
       </c>
       <c r="J66" t="n">
-        <v>4.137913060067959e-05</v>
+        <v>2.59961450435974e-06</v>
       </c>
       <c r="K66" t="n">
-        <v>1.755524721176186e-09</v>
+        <v>1.423017202625935e-05</v>
       </c>
       <c r="L66" t="n">
-        <v>7.226985214249487e-12</v>
+        <v>0.003526568982138286</v>
       </c>
       <c r="M66" t="n">
-        <v>5.750384769820982e-07</v>
+        <v>0.008619332975627328</v>
       </c>
       <c r="N66" t="n">
-        <v>1.164510386926611e-09</v>
+        <v>0.0004328829033143597</v>
       </c>
       <c r="O66" t="n">
-        <v>2.221303868459147e-14</v>
+        <v>2.220301115675141e-14</v>
       </c>
       <c r="P66" t="n">
-        <v>2.221303868459148e-14</v>
+        <v>3.539936393600737e-14</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.644541225988214e-08</v>
+        <v>0.0001923886166498364</v>
       </c>
       <c r="R66" t="n">
-        <v>6.567522263940586e-07</v>
+        <v>8.986814085165248e-08</v>
       </c>
       <c r="S66" t="n">
-        <v>6.279636452323185e-06</v>
+        <v>4.871919655195981e-11</v>
       </c>
       <c r="T66" t="n">
-        <v>2.254384475872956e-06</v>
+        <v>2.220301115675141e-14</v>
       </c>
       <c r="U66" t="n">
-        <v>1.303175902953161e-10</v>
+        <v>2.443969107987891e-07</v>
       </c>
       <c r="V66" t="n">
-        <v>2.221303868459147e-14</v>
+        <v>1.193412672899335e-09</v>
       </c>
       <c r="W66" t="n">
-        <v>2.509880489830807e-12</v>
+        <v>4.748235090480708e-13</v>
       </c>
       <c r="X66" t="n">
-        <v>1.108954445419406e-07</v>
+        <v>0.0004527380365787564</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.9980206397813404</v>
+        <v>0.9867348280668509</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>g__ER4</t>
+          <t>g__Dysosmobacter</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80567.fa</t>
+          <t>even_MAG-GUT9744.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.001160808676581995</v>
+        <v>0.0001195366884650243</v>
       </c>
       <c r="C67" t="n">
-        <v>0.005830783785152132</v>
+        <v>0.002989662674614036</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7614617957085625</v>
+        <v>0.9887940574360036</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2290200259539835</v>
+        <v>0.005211171662813941</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0001902194104782397</v>
+        <v>0.0003045335409882742</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0007846845031045278</v>
+        <v>0.0002267657594645503</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0002146679669861095</v>
+        <v>0.001790162580791124</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0002507217543107265</v>
+        <v>0.0001175671871014769</v>
       </c>
       <c r="J67" t="n">
-        <v>6.543419187899962e-05</v>
+        <v>3.527195384986391e-05</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0001493016098929151</v>
+        <v>0.0002342061350763628</v>
       </c>
       <c r="L67" t="n">
-        <v>5.49581033519971e-10</v>
+        <v>1.78444165762641e-11</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0002252424664170271</v>
+        <v>7.923636285851079e-05</v>
       </c>
       <c r="N67" t="n">
-        <v>0.000558770465066615</v>
+        <v>1.828661144595715e-05</v>
       </c>
       <c r="O67" t="n">
-        <v>2.2204374479856e-14</v>
+        <v>2.222770716895459e-14</v>
       </c>
       <c r="P67" t="n">
-        <v>2.601937564840811e-09</v>
+        <v>1.770666690645342e-11</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.641398704543091e-06</v>
+        <v>1.313364166891159e-07</v>
       </c>
       <c r="R67" t="n">
-        <v>2.448261801446461e-06</v>
+        <v>7.827253722843462e-05</v>
       </c>
       <c r="S67" t="n">
-        <v>7.595637698422723e-05</v>
+        <v>5.897935416229117e-07</v>
       </c>
       <c r="T67" t="n">
-        <v>4.54373986072239e-10</v>
+        <v>1.393388032742415e-12</v>
       </c>
       <c r="U67" t="n">
-        <v>2.23162056032869e-08</v>
+        <v>1.131631769744445e-10</v>
       </c>
       <c r="V67" t="n">
-        <v>2.2204374479856e-14</v>
+        <v>2.22277071689546e-14</v>
       </c>
       <c r="W67" t="n">
-        <v>7.398318305423509e-06</v>
+        <v>1.495847902258038e-07</v>
       </c>
       <c r="X67" t="n">
-        <v>7.322964645392309e-08</v>
+        <v>3.980043983361429e-07</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.7614617957085625</v>
+        <v>0.9887940574360036</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
@@ -6448,888 +6448,87 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82545.fa</t>
+          <t>even_MAG-GUT9970.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0002573649700251169</v>
+        <v>4.320588605010215e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>0.001530130774810846</v>
+        <v>0.004219771309928885</v>
       </c>
       <c r="D68" t="n">
-        <v>0.06530464246774877</v>
+        <v>0.9547730831822273</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1691556122949278</v>
+        <v>0.03968588407524427</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0004011488183922604</v>
+        <v>7.655330972498269e-05</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03439789191434783</v>
+        <v>0.0003766285369213181</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1690445862907299</v>
+        <v>0.0004090841353623992</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0002617794896763622</v>
+        <v>2.801124908078499e-05</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0116696799008419</v>
+        <v>2.197650649689183e-06</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0002499370929620704</v>
+        <v>0.000158887597877155</v>
       </c>
       <c r="L68" t="n">
-        <v>8.067996833512833e-05</v>
+        <v>3.3544531443495e-11</v>
       </c>
       <c r="M68" t="n">
-        <v>0.06107392362091579</v>
+        <v>0.0001378451042323052</v>
       </c>
       <c r="N68" t="n">
-        <v>3.491493699876112e-05</v>
+        <v>7.6368940719071e-05</v>
       </c>
       <c r="O68" t="n">
-        <v>1.417840014310667e-13</v>
+        <v>5.128082276961766e-14</v>
       </c>
       <c r="P68" t="n">
-        <v>2.333511259976434e-06</v>
+        <v>3.620515091696723e-12</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.010145812283245</v>
+        <v>1.111179963769189e-07</v>
       </c>
       <c r="R68" t="n">
-        <v>0.4756098889827184</v>
+        <v>1.205182821138805e-05</v>
       </c>
       <c r="S68" t="n">
-        <v>0.0005814690017482745</v>
+        <v>2.201422648014377e-07</v>
       </c>
       <c r="T68" t="n">
-        <v>5.076370403810398e-05</v>
+        <v>1.79807637127175e-12</v>
       </c>
       <c r="U68" t="n">
-        <v>1.010251990248668e-06</v>
+        <v>1.011272576972589e-09</v>
       </c>
       <c r="V68" t="n">
-        <v>1.231318758161224e-08</v>
+        <v>5.128082276962025e-14</v>
       </c>
       <c r="W68" t="n">
-        <v>7.354823265207349e-06</v>
+        <v>2.537481188979346e-08</v>
       </c>
       <c r="X68" t="n">
-        <v>0.0001390625876930873</v>
+        <v>6.950835904084826e-08</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.4756098889827184</v>
+        <v>0.9547730831822273</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>g__UBA1777</t>
+          <t>g__CAG-110</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
-        <is>
-          <t>g__UBA1777(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85125.fa</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1.264739360100525e-06</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1.548512166357095e-06</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.4336983560590598</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.00204296439336916</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.1552062112944232</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.1195368586466637</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.005260636326211211</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.05007815788377039</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.00466918597057446</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.008093022757350622</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.001522496612026249</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.06635579079687011</v>
-      </c>
-      <c r="N69" t="n">
-        <v>5.244939990269715e-06</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.0001015579691828285</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0.006177386753262242</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0.1044619961194349</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0.001383509726557912</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0.0004066925867604477</v>
-      </c>
-      <c r="T69" t="n">
-        <v>8.532248821239346e-07</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0.01896160982803163</v>
-      </c>
-      <c r="V69" t="n">
-        <v>0.005965972114050467</v>
-      </c>
-      <c r="W69" t="n">
-        <v>1.321975663696212e-06</v>
-      </c>
-      <c r="X69" t="n">
-        <v>0.01606736077033793</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>0.4336983560590598</v>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>g__CAG-110</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>g__CAG-110(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85926.fa</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1.402058550660752e-10</v>
-      </c>
-      <c r="C70" t="n">
-        <v>5.83085944662483e-09</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9780607962979707</v>
-      </c>
-      <c r="E70" t="n">
-        <v>3.81571524340459e-07</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.004903816879209716</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.01230613716406617</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2.911047283110963e-05</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1.287733514252556e-11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7.275620476619049e-07</v>
-      </c>
-      <c r="K70" t="n">
-        <v>4.583722716877555e-05</v>
-      </c>
-      <c r="L70" t="n">
-        <v>2.367599192784649e-06</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.0003520205305377147</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.0001943065018865586</v>
-      </c>
-      <c r="O70" t="n">
-        <v>3.720626139398867e-10</v>
-      </c>
-      <c r="P70" t="n">
-        <v>1.993450577344482e-13</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0.002522664893319355</v>
-      </c>
-      <c r="R70" t="n">
-        <v>4.647261210420699e-05</v>
-      </c>
-      <c r="S70" t="n">
-        <v>5.657152290280404e-09</v>
-      </c>
-      <c r="T70" t="n">
-        <v>1.392530034075816e-12</v>
-      </c>
-      <c r="U70" t="n">
-        <v>5.266415368750097e-05</v>
-      </c>
-      <c r="V70" t="n">
-        <v>2.664013070688199e-06</v>
-      </c>
-      <c r="W70" t="n">
-        <v>5.352590061960646e-09</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0.001480015154043203</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>0.9780607962979707</v>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>g__CAG-110</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>g__CAG-110</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8612.fa</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>5.895578897804598e-08</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2.139389628295329e-07</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1.135104179714808e-05</v>
-      </c>
-      <c r="E71" t="n">
-        <v>2.109810206007256e-06</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.002748766326230686</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.9941562836787528</v>
-      </c>
-      <c r="H71" t="n">
-        <v>7.853653253684264e-07</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4.083855323308689e-06</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2.759780120348614e-06</v>
-      </c>
-      <c r="K71" t="n">
-        <v>1.06838444143534e-05</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.0007418379512814831</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.001115913436509187</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.0009156270577682072</v>
-      </c>
-      <c r="O71" t="n">
-        <v>2.220207988012829e-14</v>
-      </c>
-      <c r="P71" t="n">
-        <v>5.7828022253361e-08</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>7.788103805882344e-05</v>
-      </c>
-      <c r="R71" t="n">
-        <v>2.077128572476857e-06</v>
-      </c>
-      <c r="S71" t="n">
-        <v>1.011012492757694e-06</v>
-      </c>
-      <c r="T71" t="n">
-        <v>2.322590971822801e-12</v>
-      </c>
-      <c r="U71" t="n">
-        <v>2.185307096802241e-06</v>
-      </c>
-      <c r="V71" t="n">
-        <v>9.318838929597803e-10</v>
-      </c>
-      <c r="W71" t="n">
-        <v>7.657003663341779e-06</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0.000198654705384029</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>0.9941562836787528</v>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>g__Dysosmobacter</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>g__Dysosmobacter</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8640.fa</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1.385513922914056e-06</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1.326756146039834e-05</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.0005549024220636693</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.00468542303389</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.0007142122094412765</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.0002566752980431777</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.9883050998241026</v>
-      </c>
-      <c r="I72" t="n">
-        <v>8.598086119755028e-07</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4.796174046184211e-06</v>
-      </c>
-      <c r="K72" t="n">
-        <v>7.026522303496801e-08</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.117633540028349e-11</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.0001308305019900749</v>
-      </c>
-      <c r="N72" t="n">
-        <v>1.832435411045267e-08</v>
-      </c>
-      <c r="O72" t="n">
-        <v>2.220225907990707e-14</v>
-      </c>
-      <c r="P72" t="n">
-        <v>5.199755202640675e-13</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>6.505539174603654e-08</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0.005311655571923838</v>
-      </c>
-      <c r="S72" t="n">
-        <v>2.048276591763065e-05</v>
-      </c>
-      <c r="T72" t="n">
-        <v>4.439989922319975e-09</v>
-      </c>
-      <c r="U72" t="n">
-        <v>2.727487609254458e-11</v>
-      </c>
-      <c r="V72" t="n">
-        <v>2.220225907990707e-14</v>
-      </c>
-      <c r="W72" t="n">
-        <v>3.774293093990383e-10</v>
-      </c>
-      <c r="X72" t="n">
-        <v>2.507931825693175e-07</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>0.9883050998241026</v>
-      </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>g__ER4</t>
-        </is>
-      </c>
-      <c r="AA72" t="inlineStr">
-        <is>
-          <t>g__ER4</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86439.fa</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>5.370399725787093e-10</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1.345936183185964e-09</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9667622691541217</v>
-      </c>
-      <c r="E73" t="n">
-        <v>5.429763689073063e-07</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.01738465920724933</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.01050708704438965</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1.65455216281543e-05</v>
-      </c>
-      <c r="I73" t="n">
-        <v>6.397917522892966e-12</v>
-      </c>
-      <c r="J73" t="n">
-        <v>7.812384820583009e-07</v>
-      </c>
-      <c r="K73" t="n">
-        <v>7.373131472589723e-05</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.144203648832223e-06</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.0001841506460363582</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0.0001654398799855635</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1.595754697832244e-06</v>
-      </c>
-      <c r="P73" t="n">
-        <v>5.563003025067367e-14</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0.001573551801144568</v>
-      </c>
-      <c r="R73" t="n">
-        <v>2.781703221239325e-05</v>
-      </c>
-      <c r="S73" t="n">
-        <v>2.525095344161032e-08</v>
-      </c>
-      <c r="T73" t="n">
-        <v>5.305077012204915e-12</v>
-      </c>
-      <c r="U73" t="n">
-        <v>7.714084513232112e-06</v>
-      </c>
-      <c r="V73" t="n">
-        <v>2.570861148180144e-06</v>
-      </c>
-      <c r="W73" t="n">
-        <v>2.259844258943337e-09</v>
-      </c>
-      <c r="X73" t="n">
-        <v>0.003288369874114952</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>0.9667622691541217</v>
-      </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>g__CAG-110</t>
-        </is>
-      </c>
-      <c r="AA73" t="inlineStr">
-        <is>
-          <t>g__CAG-110</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8940.fa</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>4.164024278482858e-05</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.003445611824251402</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.002913372587847777</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.0006467004840475247</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.0002106522569694045</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.0006062667290271801</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.9874928609251811</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1.483885153601047e-06</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1.381197941578374e-05</v>
-      </c>
-      <c r="K74" t="n">
-        <v>9.139013956642171e-08</v>
-      </c>
-      <c r="L74" t="n">
-        <v>4.048968137233655e-09</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.000253822196357137</v>
-      </c>
-      <c r="N74" t="n">
-        <v>9.238762736608809e-08</v>
-      </c>
-      <c r="O74" t="n">
-        <v>3.031729977343515e-14</v>
-      </c>
-      <c r="P74" t="n">
-        <v>4.040152948295392e-12</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>2.161508521456767e-06</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0.004363101231041563</v>
-      </c>
-      <c r="S74" t="n">
-        <v>8.936548881647444e-07</v>
-      </c>
-      <c r="T74" t="n">
-        <v>1.522092031050929e-06</v>
-      </c>
-      <c r="U74" t="n">
-        <v>6.858296635039393e-10</v>
-      </c>
-      <c r="V74" t="n">
-        <v>3.031729977343522e-14</v>
-      </c>
-      <c r="W74" t="n">
-        <v>3.666907717179614e-09</v>
-      </c>
-      <c r="X74" t="n">
-        <v>5.90621890875733e-06</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>0.9874928609251811</v>
-      </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>g__ER4</t>
-        </is>
-      </c>
-      <c r="AA74" t="inlineStr">
-        <is>
-          <t>g__ER4</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9113.fa</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>1.229587047312894e-08</v>
-      </c>
-      <c r="C75" t="n">
-        <v>5.935040157005904e-06</v>
-      </c>
-      <c r="D75" t="n">
-        <v>9.31201308807508e-07</v>
-      </c>
-      <c r="E75" t="n">
-        <v>4.073228128286522e-10</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1.139938083951519e-05</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.9867348280668509</v>
-      </c>
-      <c r="H75" t="n">
-        <v>3.643722244959765e-07</v>
-      </c>
-      <c r="I75" t="n">
-        <v>5.452426848817234e-06</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2.59961450435974e-06</v>
-      </c>
-      <c r="K75" t="n">
-        <v>1.423017202625935e-05</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.003526568982138286</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.008619332975627328</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0.0004328829033143597</v>
-      </c>
-      <c r="O75" t="n">
-        <v>2.220301115675141e-14</v>
-      </c>
-      <c r="P75" t="n">
-        <v>3.539936393600737e-14</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0.0001923886166498364</v>
-      </c>
-      <c r="R75" t="n">
-        <v>8.986814085165248e-08</v>
-      </c>
-      <c r="S75" t="n">
-        <v>4.871919655195981e-11</v>
-      </c>
-      <c r="T75" t="n">
-        <v>2.220301115675141e-14</v>
-      </c>
-      <c r="U75" t="n">
-        <v>2.443969107987891e-07</v>
-      </c>
-      <c r="V75" t="n">
-        <v>1.193412672899335e-09</v>
-      </c>
-      <c r="W75" t="n">
-        <v>4.748235090480708e-13</v>
-      </c>
-      <c r="X75" t="n">
-        <v>0.0004527380365787564</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>0.9867348280668509</v>
-      </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>g__Dysosmobacter</t>
-        </is>
-      </c>
-      <c r="AA75" t="inlineStr">
-        <is>
-          <t>g__Dysosmobacter</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9744.fa</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.0001195366884650243</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.002989662674614036</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9887940574360036</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.005211171662813941</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.0003045335409882742</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.0002267657594645503</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.001790162580791124</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.0001175671871014769</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3.527195384986391e-05</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.0002342061350763628</v>
-      </c>
-      <c r="L76" t="n">
-        <v>1.78444165762641e-11</v>
-      </c>
-      <c r="M76" t="n">
-        <v>7.923636285851079e-05</v>
-      </c>
-      <c r="N76" t="n">
-        <v>1.828661144595715e-05</v>
-      </c>
-      <c r="O76" t="n">
-        <v>2.222770716895459e-14</v>
-      </c>
-      <c r="P76" t="n">
-        <v>1.770666690645342e-11</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>1.313364166891159e-07</v>
-      </c>
-      <c r="R76" t="n">
-        <v>7.827253722843462e-05</v>
-      </c>
-      <c r="S76" t="n">
-        <v>5.897935416229117e-07</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1.393388032742415e-12</v>
-      </c>
-      <c r="U76" t="n">
-        <v>1.131631769744445e-10</v>
-      </c>
-      <c r="V76" t="n">
-        <v>2.22277071689546e-14</v>
-      </c>
-      <c r="W76" t="n">
-        <v>1.495847902258038e-07</v>
-      </c>
-      <c r="X76" t="n">
-        <v>3.980043983361429e-07</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>0.9887940574360036</v>
-      </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>g__CAG-110</t>
-        </is>
-      </c>
-      <c r="AA76" t="inlineStr">
-        <is>
-          <t>g__CAG-110</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9970.fa</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>4.320588605010215e-05</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.004219771309928885</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9547730831822273</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.03968588407524427</v>
-      </c>
-      <c r="F77" t="n">
-        <v>7.655330972498269e-05</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.0003766285369213181</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.0004090841353623992</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2.801124908078499e-05</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2.197650649689183e-06</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.000158887597877155</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.3544531443495e-11</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.0001378451042323052</v>
-      </c>
-      <c r="N77" t="n">
-        <v>7.6368940719071e-05</v>
-      </c>
-      <c r="O77" t="n">
-        <v>5.128082276961766e-14</v>
-      </c>
-      <c r="P77" t="n">
-        <v>3.620515091696723e-12</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>1.111179963769189e-07</v>
-      </c>
-      <c r="R77" t="n">
-        <v>1.205182821138805e-05</v>
-      </c>
-      <c r="S77" t="n">
-        <v>2.201422648014377e-07</v>
-      </c>
-      <c r="T77" t="n">
-        <v>1.79807637127175e-12</v>
-      </c>
-      <c r="U77" t="n">
-        <v>1.011272576972589e-09</v>
-      </c>
-      <c r="V77" t="n">
-        <v>5.128082276962025e-14</v>
-      </c>
-      <c r="W77" t="n">
-        <v>2.537481188979346e-08</v>
-      </c>
-      <c r="X77" t="n">
-        <v>6.950835904084826e-08</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>0.9547730831822273</v>
-      </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>g__CAG-110</t>
-        </is>
-      </c>
-      <c r="AA77" t="inlineStr">
         <is>
           <t>g__CAG-110</t>
         </is>
